--- a/ExcelGenerado.xlsx
+++ b/ExcelGenerado.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3720" yWindow="3195" windowWidth="15375" windowHeight="8325" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Brujula" sheetId="1" state="visible" r:id="rId1"/>
@@ -38,7 +38,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -63,14 +63,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.3499862666707358"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="27">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -278,11 +272,11 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -291,31 +285,24 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -324,13 +311,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <right/>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -339,9 +322,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -350,7 +331,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -410,7 +393,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -428,22 +411,23 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="20" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -856,16 +840,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O17"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col hidden="1" width="14.85546875" customWidth="1" min="6" max="6"/>
-    <col hidden="1" min="8" max="13"/>
+    <col hidden="1" width="14.85546875" customWidth="1" style="25" min="6" max="6"/>
+    <col hidden="1" style="25" min="8" max="13"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -937,7 +921,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1" thickBot="1">
+    <row r="2" ht="15.75" customHeight="1" s="25" thickBot="1">
       <c r="A2" s="12" t="n"/>
       <c r="B2" s="13" t="n"/>
       <c r="C2" s="13" t="inlineStr">
@@ -983,28 +967,28 @@
       <c r="L3" s="8" t="n"/>
       <c r="M3" s="8" t="n"/>
       <c r="N3" s="14" t="n">
-        <v>3200</v>
+        <v>2000</v>
       </c>
       <c r="O3" s="14" t="n">
-        <v>2400</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="25" t="n"/>
-      <c r="B4" s="25" t="n">
+      <c r="A4" s="19" t="n"/>
+      <c r="B4" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="C4" s="25" t="n">
+      <c r="C4" s="19" t="n">
         <v>38</v>
       </c>
-      <c r="D4" s="25" t="n">
+      <c r="D4" s="19" t="n">
         <v>12</v>
       </c>
-      <c r="E4" s="25" t="n">
+      <c r="E4" s="19" t="n">
         <v>45</v>
       </c>
       <c r="F4" s="9" t="n"/>
-      <c r="G4" s="25" t="n">
+      <c r="G4" s="19" t="n">
         <v>84.94</v>
       </c>
       <c r="H4" s="9" t="n"/>
@@ -1013,48 +997,48 @@
       <c r="K4" s="9" t="n"/>
       <c r="L4" s="9" t="n"/>
       <c r="M4" s="9" t="n"/>
-      <c r="N4" s="25" t="n">
-        <v>3266.741523367982</v>
-      </c>
-      <c r="O4" s="25" t="n">
-        <v>2452.505908614968</v>
+      <c r="N4" s="19" t="n">
+        <v>2059.317731759738</v>
+      </c>
+      <c r="O4" s="19" t="n">
+        <v>2056.385435949188</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="25" t="n">
+      <c r="A5" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="B5" s="25" t="n"/>
-      <c r="C5" s="25" t="n"/>
-      <c r="D5" s="25" t="n"/>
-      <c r="E5" s="25" t="n"/>
+      <c r="B5" s="19" t="n"/>
+      <c r="C5" s="19" t="n"/>
+      <c r="D5" s="19" t="n"/>
+      <c r="E5" s="19" t="n"/>
       <c r="F5" s="9" t="n"/>
-      <c r="G5" s="25" t="n"/>
+      <c r="G5" s="19" t="n"/>
       <c r="H5" s="9" t="n"/>
       <c r="I5" s="9" t="n"/>
       <c r="J5" s="9" t="n"/>
       <c r="K5" s="9" t="n"/>
       <c r="L5" s="9" t="n"/>
       <c r="M5" s="9" t="n"/>
-      <c r="N5" s="25" t="n"/>
-      <c r="O5" s="25" t="n"/>
+      <c r="N5" s="19" t="n"/>
+      <c r="O5" s="19" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="25" t="n"/>
-      <c r="B6" s="25" t="n">
+      <c r="A6" s="19" t="n"/>
+      <c r="B6" s="19" t="n">
         <v>3</v>
       </c>
-      <c r="C6" s="25" t="n">
+      <c r="C6" s="19" t="n">
         <v>76</v>
       </c>
-      <c r="D6" s="25" t="n">
+      <c r="D6" s="19" t="n">
         <v>34</v>
       </c>
-      <c r="E6" s="25" t="n">
+      <c r="E6" s="19" t="n">
         <v>30</v>
       </c>
       <c r="F6" s="9" t="n"/>
-      <c r="G6" s="25" t="n">
+      <c r="G6" s="19" t="n">
         <v>75.27</v>
       </c>
       <c r="H6" s="9" t="n"/>
@@ -1063,48 +1047,48 @@
       <c r="K6" s="9" t="n"/>
       <c r="L6" s="9" t="n"/>
       <c r="M6" s="9" t="n"/>
-      <c r="N6" s="25" t="n">
-        <v>3284.219173351751</v>
-      </c>
-      <c r="O6" s="25" t="n">
-        <v>2525.686997033737</v>
+      <c r="N6" s="19" t="n">
+        <v>2070.216752189086</v>
+      </c>
+      <c r="O6" s="19" t="n">
+        <v>2133.004386652472</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="25" t="n">
+      <c r="A7" s="19" t="n">
         <v>3</v>
       </c>
-      <c r="B7" s="25" t="n"/>
-      <c r="C7" s="25" t="n"/>
-      <c r="D7" s="25" t="n"/>
-      <c r="E7" s="25" t="n"/>
+      <c r="B7" s="19" t="n"/>
+      <c r="C7" s="19" t="n"/>
+      <c r="D7" s="19" t="n"/>
+      <c r="E7" s="19" t="n"/>
       <c r="F7" s="9" t="n"/>
-      <c r="G7" s="25" t="n"/>
+      <c r="G7" s="19" t="n"/>
       <c r="H7" s="9" t="n"/>
       <c r="I7" s="9" t="n"/>
       <c r="J7" s="9" t="n"/>
       <c r="K7" s="9" t="n"/>
       <c r="L7" s="9" t="n"/>
       <c r="M7" s="9" t="n"/>
-      <c r="N7" s="25" t="n"/>
-      <c r="O7" s="25" t="n"/>
+      <c r="N7" s="19" t="n"/>
+      <c r="O7" s="19" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="25" t="n"/>
-      <c r="B8" s="25" t="n">
+      <c r="A8" s="19" t="n"/>
+      <c r="B8" s="19" t="n">
         <v>4</v>
       </c>
-      <c r="C8" s="25" t="n">
+      <c r="C8" s="19" t="n">
         <v>144</v>
       </c>
-      <c r="D8" s="25" t="n">
+      <c r="D8" s="19" t="n">
         <v>49</v>
       </c>
-      <c r="E8" s="25" t="n">
+      <c r="E8" s="19" t="n">
         <v>48</v>
       </c>
       <c r="F8" s="9" t="n"/>
-      <c r="G8" s="25" t="n">
+      <c r="G8" s="19" t="n">
         <v>85.29000000000001</v>
       </c>
       <c r="H8" s="9" t="n"/>
@@ -1113,48 +1097,48 @@
       <c r="K8" s="9" t="n"/>
       <c r="L8" s="9" t="n"/>
       <c r="M8" s="9" t="n"/>
-      <c r="N8" s="25" t="n">
-        <v>3214.501462038008</v>
-      </c>
-      <c r="O8" s="25" t="n">
-        <v>2574.777999301881</v>
+      <c r="N8" s="19" t="n">
+        <v>1993.044659120374</v>
+      </c>
+      <c r="O8" s="19" t="n">
+        <v>2185.990902063255</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="25" t="n">
+      <c r="A9" s="19" t="n">
         <v>4</v>
       </c>
-      <c r="B9" s="25" t="n"/>
-      <c r="C9" s="25" t="n"/>
-      <c r="D9" s="25" t="n"/>
-      <c r="E9" s="25" t="n"/>
+      <c r="B9" s="19" t="n"/>
+      <c r="C9" s="19" t="n"/>
+      <c r="D9" s="19" t="n"/>
+      <c r="E9" s="19" t="n"/>
       <c r="F9" s="9" t="n"/>
-      <c r="G9" s="25" t="n"/>
+      <c r="G9" s="19" t="n"/>
       <c r="H9" s="9" t="n"/>
       <c r="I9" s="9" t="n"/>
       <c r="J9" s="9" t="n"/>
       <c r="K9" s="9" t="n"/>
       <c r="L9" s="9" t="n"/>
       <c r="M9" s="9" t="n"/>
-      <c r="N9" s="25" t="n"/>
-      <c r="O9" s="25" t="n"/>
+      <c r="N9" s="19" t="n"/>
+      <c r="O9" s="19" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="25" t="n"/>
-      <c r="B10" s="25" t="n">
+      <c r="A10" s="19" t="n"/>
+      <c r="B10" s="19" t="n">
         <v>5</v>
       </c>
-      <c r="C10" s="25" t="n">
+      <c r="C10" s="19" t="n">
         <v>192</v>
       </c>
-      <c r="D10" s="25" t="n">
+      <c r="D10" s="19" t="n">
         <v>57</v>
       </c>
-      <c r="E10" s="25" t="n">
+      <c r="E10" s="19" t="n">
         <v>32</v>
       </c>
       <c r="F10" s="9" t="n"/>
-      <c r="G10" s="25" t="n">
+      <c r="G10" s="19" t="n">
         <v>92.34</v>
       </c>
       <c r="H10" s="9" t="n"/>
@@ -1163,48 +1147,48 @@
       <c r="K10" s="9" t="n"/>
       <c r="L10" s="9" t="n"/>
       <c r="M10" s="9" t="n"/>
-      <c r="N10" s="25" t="n">
-        <v>3124.515749608995</v>
-      </c>
-      <c r="O10" s="25" t="n">
-        <v>2554.031161200757</v>
+      <c r="N10" s="19" t="n">
+        <v>1894.988391980916</v>
+      </c>
+      <c r="O10" s="19" t="n">
+        <v>2169.461576960034</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="25" t="n">
+      <c r="A11" s="19" t="n">
         <v>5</v>
       </c>
-      <c r="B11" s="25" t="n"/>
-      <c r="C11" s="25" t="n"/>
-      <c r="D11" s="25" t="n"/>
-      <c r="E11" s="25" t="n"/>
+      <c r="B11" s="19" t="n"/>
+      <c r="C11" s="19" t="n"/>
+      <c r="D11" s="19" t="n"/>
+      <c r="E11" s="19" t="n"/>
       <c r="F11" s="9" t="n"/>
-      <c r="G11" s="25" t="n"/>
+      <c r="G11" s="19" t="n"/>
       <c r="H11" s="9" t="n"/>
       <c r="I11" s="9" t="n"/>
       <c r="J11" s="9" t="n"/>
       <c r="K11" s="9" t="n"/>
       <c r="L11" s="9" t="n"/>
       <c r="M11" s="9" t="n"/>
-      <c r="N11" s="25" t="n"/>
-      <c r="O11" s="25" t="n"/>
+      <c r="N11" s="19" t="n"/>
+      <c r="O11" s="19" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="25" t="n"/>
-      <c r="B12" s="25" t="n">
+      <c r="A12" s="19" t="n"/>
+      <c r="B12" s="19" t="n">
         <v>6</v>
       </c>
-      <c r="C12" s="25" t="n">
+      <c r="C12" s="19" t="n">
         <v>316</v>
       </c>
-      <c r="D12" s="25" t="n">
+      <c r="D12" s="19" t="n">
         <v>50</v>
       </c>
-      <c r="E12" s="25" t="n">
+      <c r="E12" s="19" t="n">
         <v>47</v>
       </c>
       <c r="F12" s="9" t="n"/>
-      <c r="G12" s="25" t="n">
+      <c r="G12" s="19" t="n">
         <v>63.15</v>
       </c>
       <c r="H12" s="9" t="n"/>
@@ -1213,48 +1197,48 @@
       <c r="K12" s="9" t="n"/>
       <c r="L12" s="9" t="n"/>
       <c r="M12" s="9" t="n"/>
-      <c r="N12" s="25" t="n">
-        <v>3170.586813455685</v>
-      </c>
-      <c r="O12" s="25" t="n">
-        <v>2510.812337293306</v>
+      <c r="N12" s="19" t="n">
+        <v>1935.540119354088</v>
+      </c>
+      <c r="O12" s="19" t="n">
+        <v>2129.127049628472</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="25" t="n">
+      <c r="A13" s="19" t="n">
         <v>6</v>
       </c>
-      <c r="B13" s="25" t="n"/>
-      <c r="C13" s="25" t="n"/>
-      <c r="D13" s="25" t="n"/>
-      <c r="E13" s="25" t="n"/>
+      <c r="B13" s="19" t="n"/>
+      <c r="C13" s="19" t="n"/>
+      <c r="D13" s="19" t="n"/>
+      <c r="E13" s="19" t="n"/>
       <c r="F13" s="9" t="n"/>
-      <c r="G13" s="25" t="n"/>
+      <c r="G13" s="19" t="n"/>
       <c r="H13" s="9" t="n"/>
       <c r="I13" s="9" t="n"/>
       <c r="J13" s="9" t="n"/>
       <c r="K13" s="9" t="n"/>
       <c r="L13" s="9" t="n"/>
       <c r="M13" s="9" t="n"/>
-      <c r="N13" s="25" t="n"/>
-      <c r="O13" s="25" t="n"/>
+      <c r="N13" s="19" t="n"/>
+      <c r="O13" s="19" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="25" t="n"/>
-      <c r="B14" s="25" t="n">
+      <c r="A14" s="19" t="n"/>
+      <c r="B14" s="19" t="n">
         <v>7</v>
       </c>
-      <c r="C14" s="25" t="n">
+      <c r="C14" s="19" t="n">
         <v>254</v>
       </c>
-      <c r="D14" s="25" t="n">
+      <c r="D14" s="19" t="n">
         <v>6</v>
       </c>
-      <c r="E14" s="25" t="n">
+      <c r="E14" s="19" t="n">
         <v>29</v>
       </c>
       <c r="F14" s="9" t="n"/>
-      <c r="G14" s="25" t="n">
+      <c r="G14" s="19" t="n">
         <v>86.34999999999999</v>
       </c>
       <c r="H14" s="9" t="n"/>
@@ -1263,48 +1247,48 @@
       <c r="K14" s="9" t="n"/>
       <c r="L14" s="9" t="n"/>
       <c r="M14" s="9" t="n"/>
-      <c r="N14" s="25" t="n">
-        <v>3146.944449518857</v>
-      </c>
-      <c r="O14" s="25" t="n">
-        <v>2427.7257861192</v>
+      <c r="N14" s="19" t="n">
+        <v>1904.350729217922</v>
+      </c>
+      <c r="O14" s="19" t="n">
+        <v>2049.984425759639</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="25" t="n">
+      <c r="A15" s="19" t="n">
         <v>7</v>
       </c>
-      <c r="B15" s="25" t="n"/>
-      <c r="C15" s="25" t="n"/>
-      <c r="D15" s="25" t="n"/>
-      <c r="E15" s="25" t="n"/>
+      <c r="B15" s="19" t="n"/>
+      <c r="C15" s="19" t="n"/>
+      <c r="D15" s="19" t="n"/>
+      <c r="E15" s="19" t="n"/>
       <c r="F15" s="9" t="n"/>
-      <c r="G15" s="25" t="n"/>
+      <c r="G15" s="19" t="n"/>
       <c r="H15" s="9" t="n"/>
       <c r="I15" s="9" t="n"/>
       <c r="J15" s="9" t="n"/>
       <c r="K15" s="9" t="n"/>
       <c r="L15" s="9" t="n"/>
       <c r="M15" s="9" t="n"/>
-      <c r="N15" s="25" t="n"/>
-      <c r="O15" s="25" t="n"/>
+      <c r="N15" s="19" t="n"/>
+      <c r="O15" s="19" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="25" t="n"/>
-      <c r="B16" s="25" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" s="25" t="n">
+      <c r="A16" s="19" t="n"/>
+      <c r="B16" s="19" t="n">
+        <v>8</v>
+      </c>
+      <c r="C16" s="19" t="n">
         <v>332</v>
       </c>
-      <c r="D16" s="25" t="n">
+      <c r="D16" s="19" t="n">
         <v>25</v>
       </c>
-      <c r="E16" s="25" t="n">
+      <c r="E16" s="19" t="n">
         <v>49</v>
       </c>
       <c r="F16" s="9" t="n"/>
-      <c r="G16" s="25" t="n">
+      <c r="G16" s="19" t="n">
         <v>59.85</v>
       </c>
       <c r="H16" s="9" t="n"/>
@@ -1314,32 +1298,73 @@
       <c r="L16" s="9" t="n"/>
       <c r="M16" s="9" t="n"/>
       <c r="N16" s="19" t="n">
-        <v>3200</v>
+        <v>1952.175364608961</v>
       </c>
       <c r="O16" s="19" t="n">
-        <v>2400</v>
+        <v>2024.992212879819</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="25" t="n"/>
-      <c r="B17" s="25" t="n"/>
-      <c r="C17" s="25" t="n"/>
-      <c r="D17" s="25" t="n"/>
-      <c r="E17" s="25" t="n"/>
+      <c r="A17" s="19" t="n">
+        <v>8</v>
+      </c>
+      <c r="B17" s="19" t="n"/>
+      <c r="C17" s="19" t="n"/>
+      <c r="D17" s="19" t="n"/>
+      <c r="E17" s="19" t="n"/>
       <c r="F17" s="9" t="n"/>
-      <c r="G17" s="17" t="n"/>
+      <c r="G17" s="19" t="n"/>
       <c r="H17" s="9" t="n"/>
       <c r="I17" s="9" t="n"/>
       <c r="J17" s="9" t="n"/>
       <c r="K17" s="9" t="n"/>
-      <c r="L17" s="9" t="n">
+      <c r="L17" s="9" t="n"/>
+      <c r="M17" s="9" t="n"/>
+      <c r="N17" s="19" t="n"/>
+      <c r="O17" s="19" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="19" t="n"/>
+      <c r="B18" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" s="19" t="n">
+        <v>332</v>
+      </c>
+      <c r="D18" s="19" t="n">
+        <v>25</v>
+      </c>
+      <c r="E18" s="19" t="n">
+        <v>49</v>
+      </c>
+      <c r="F18" s="9" t="n"/>
+      <c r="G18" s="19" t="n">
+        <v>59.85</v>
+      </c>
+      <c r="H18" s="9" t="n"/>
+      <c r="I18" s="9" t="n"/>
+      <c r="J18" s="9" t="n"/>
+      <c r="K18" s="9" t="n"/>
+      <c r="L18" s="9" t="n"/>
+      <c r="M18" s="9" t="n"/>
+      <c r="N18" s="19" t="n">
+        <v>2000</v>
+      </c>
+      <c r="O18" s="19" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="H19" s="26" t="n"/>
+      <c r="I19" s="8" t="n"/>
+      <c r="J19" s="8" t="n"/>
+      <c r="K19" s="8" t="n"/>
+      <c r="L19" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="M17" s="18" t="n">
+      <c r="M19" s="27" t="n">
         <v>0</v>
       </c>
-      <c r="N17" s="20" t="n"/>
-      <c r="O17" s="21" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1353,13 +1378,17 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4:Q16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col hidden="1" width="0.140625" customWidth="1" style="25" min="6" max="6"/>
+    <col hidden="1" width="0.140625" customWidth="1" style="25" min="8" max="15"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="10" t="inlineStr">
@@ -1394,7 +1423,7 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="I1" s="29" t="inlineStr">
+      <c r="I1" s="30" t="inlineStr">
         <is>
           <t>VY</t>
         </is>
@@ -1404,27 +1433,27 @@
           <t>X</t>
         </is>
       </c>
-      <c r="K1" s="29" t="inlineStr">
+      <c r="K1" s="30" t="inlineStr">
         <is>
           <t>VX</t>
         </is>
       </c>
-      <c r="L1" s="29" t="inlineStr">
+      <c r="L1" s="30" t="inlineStr">
         <is>
           <t>CY</t>
         </is>
       </c>
-      <c r="M1" s="29" t="inlineStr">
+      <c r="M1" s="30" t="inlineStr">
         <is>
           <t>CX</t>
         </is>
       </c>
-      <c r="N1" s="29" t="inlineStr">
+      <c r="N1" s="30" t="inlineStr">
         <is>
           <t>YC</t>
         </is>
       </c>
-      <c r="O1" s="29" t="inlineStr">
+      <c r="O1" s="30" t="inlineStr">
         <is>
           <t>XC</t>
         </is>
@@ -1440,7 +1469,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1" thickBot="1">
+    <row r="2" ht="15.75" customHeight="1" s="25" thickBot="1">
       <c r="A2" s="12" t="n"/>
       <c r="B2" s="13" t="n"/>
       <c r="C2" s="13" t="inlineStr">
@@ -1461,13 +1490,13 @@
       <c r="F2" s="7" t="n"/>
       <c r="G2" s="13" t="n"/>
       <c r="H2" s="7" t="n"/>
-      <c r="I2" s="30" t="n"/>
+      <c r="I2" s="31" t="n"/>
       <c r="J2" s="7" t="n"/>
-      <c r="K2" s="30" t="n"/>
-      <c r="L2" s="30" t="n"/>
-      <c r="M2" s="30" t="n"/>
-      <c r="N2" s="30" t="n"/>
-      <c r="O2" s="30" t="n"/>
+      <c r="K2" s="31" t="n"/>
+      <c r="L2" s="31" t="n"/>
+      <c r="M2" s="31" t="n"/>
+      <c r="N2" s="31" t="n"/>
+      <c r="O2" s="31" t="n"/>
       <c r="P2" s="13" t="n"/>
       <c r="Q2" s="16" t="n"/>
     </row>
@@ -1493,21 +1522,21 @@
       <c r="Q3" s="14" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="25" t="n"/>
-      <c r="B4" s="25" t="n">
+      <c r="A4" s="19" t="n"/>
+      <c r="B4" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="C4" s="25" t="n">
+      <c r="C4" s="19" t="n">
         <v>38</v>
       </c>
-      <c r="D4" s="25" t="n">
+      <c r="D4" s="19" t="n">
         <v>12</v>
       </c>
-      <c r="E4" s="25" t="n">
+      <c r="E4" s="19" t="n">
         <v>45</v>
       </c>
       <c r="F4" s="9" t="n"/>
-      <c r="G4" s="25" t="n">
+      <c r="G4" s="19" t="n">
         <v>84.94</v>
       </c>
       <c r="H4" s="9" t="n"/>
@@ -1518,19 +1547,19 @@
       <c r="M4" s="9" t="n"/>
       <c r="N4" s="9" t="n"/>
       <c r="O4" s="9" t="n"/>
-      <c r="P4" s="25" t="n"/>
-      <c r="Q4" s="25" t="n"/>
+      <c r="P4" s="19" t="n"/>
+      <c r="Q4" s="19" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="25" t="n">
+      <c r="A5" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="B5" s="25" t="n"/>
-      <c r="C5" s="25" t="n"/>
-      <c r="D5" s="25" t="n"/>
-      <c r="E5" s="25" t="n"/>
+      <c r="B5" s="19" t="n"/>
+      <c r="C5" s="19" t="n"/>
+      <c r="D5" s="19" t="n"/>
+      <c r="E5" s="19" t="n"/>
       <c r="F5" s="9" t="n"/>
-      <c r="G5" s="25" t="n"/>
+      <c r="G5" s="19" t="n"/>
       <c r="H5" s="9" t="n"/>
       <c r="I5" s="9" t="n"/>
       <c r="J5" s="9" t="n"/>
@@ -1539,25 +1568,25 @@
       <c r="M5" s="9" t="n"/>
       <c r="N5" s="9" t="n"/>
       <c r="O5" s="9" t="n"/>
-      <c r="P5" s="25" t="n"/>
-      <c r="Q5" s="25" t="n"/>
+      <c r="P5" s="19" t="n"/>
+      <c r="Q5" s="19" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="25" t="n"/>
-      <c r="B6" s="25" t="n">
+      <c r="A6" s="19" t="n"/>
+      <c r="B6" s="19" t="n">
         <v>3</v>
       </c>
-      <c r="C6" s="25" t="n">
+      <c r="C6" s="19" t="n">
         <v>76</v>
       </c>
-      <c r="D6" s="25" t="n">
+      <c r="D6" s="19" t="n">
         <v>34</v>
       </c>
-      <c r="E6" s="25" t="n">
+      <c r="E6" s="19" t="n">
         <v>30</v>
       </c>
       <c r="F6" s="9" t="n"/>
-      <c r="G6" s="25" t="n">
+      <c r="G6" s="19" t="n">
         <v>75.27</v>
       </c>
       <c r="H6" s="9" t="n"/>
@@ -1568,19 +1597,19 @@
       <c r="M6" s="9" t="n"/>
       <c r="N6" s="9" t="n"/>
       <c r="O6" s="9" t="n"/>
-      <c r="P6" s="25" t="n"/>
-      <c r="Q6" s="25" t="n"/>
+      <c r="P6" s="19" t="n"/>
+      <c r="Q6" s="19" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="25" t="n">
+      <c r="A7" s="19" t="n">
         <v>3</v>
       </c>
-      <c r="B7" s="25" t="n"/>
-      <c r="C7" s="25" t="n"/>
-      <c r="D7" s="25" t="n"/>
-      <c r="E7" s="25" t="n"/>
+      <c r="B7" s="19" t="n"/>
+      <c r="C7" s="19" t="n"/>
+      <c r="D7" s="19" t="n"/>
+      <c r="E7" s="19" t="n"/>
       <c r="F7" s="9" t="n"/>
-      <c r="G7" s="25" t="n"/>
+      <c r="G7" s="19" t="n"/>
       <c r="H7" s="9" t="n"/>
       <c r="I7" s="9" t="n"/>
       <c r="J7" s="9" t="n"/>
@@ -1589,25 +1618,25 @@
       <c r="M7" s="9" t="n"/>
       <c r="N7" s="9" t="n"/>
       <c r="O7" s="9" t="n"/>
-      <c r="P7" s="25" t="n"/>
-      <c r="Q7" s="25" t="n"/>
+      <c r="P7" s="19" t="n"/>
+      <c r="Q7" s="19" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="25" t="n"/>
-      <c r="B8" s="25" t="n">
+      <c r="A8" s="19" t="n"/>
+      <c r="B8" s="19" t="n">
         <v>4</v>
       </c>
-      <c r="C8" s="25" t="n">
+      <c r="C8" s="19" t="n">
         <v>144</v>
       </c>
-      <c r="D8" s="25" t="n">
+      <c r="D8" s="19" t="n">
         <v>49</v>
       </c>
-      <c r="E8" s="25" t="n">
+      <c r="E8" s="19" t="n">
         <v>48</v>
       </c>
       <c r="F8" s="9" t="n"/>
-      <c r="G8" s="25" t="n">
+      <c r="G8" s="19" t="n">
         <v>85.29000000000001</v>
       </c>
       <c r="H8" s="9" t="n"/>
@@ -1618,19 +1647,19 @@
       <c r="M8" s="9" t="n"/>
       <c r="N8" s="9" t="n"/>
       <c r="O8" s="9" t="n"/>
-      <c r="P8" s="25" t="n"/>
-      <c r="Q8" s="25" t="n"/>
+      <c r="P8" s="19" t="n"/>
+      <c r="Q8" s="19" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="25" t="n">
+      <c r="A9" s="19" t="n">
         <v>4</v>
       </c>
-      <c r="B9" s="25" t="n"/>
-      <c r="C9" s="25" t="n"/>
-      <c r="D9" s="25" t="n"/>
-      <c r="E9" s="25" t="n"/>
+      <c r="B9" s="19" t="n"/>
+      <c r="C9" s="19" t="n"/>
+      <c r="D9" s="19" t="n"/>
+      <c r="E9" s="19" t="n"/>
       <c r="F9" s="9" t="n"/>
-      <c r="G9" s="25" t="n"/>
+      <c r="G9" s="19" t="n"/>
       <c r="H9" s="9" t="n"/>
       <c r="I9" s="9" t="n"/>
       <c r="J9" s="9" t="n"/>
@@ -1639,25 +1668,25 @@
       <c r="M9" s="9" t="n"/>
       <c r="N9" s="9" t="n"/>
       <c r="O9" s="9" t="n"/>
-      <c r="P9" s="25" t="n"/>
-      <c r="Q9" s="25" t="n"/>
+      <c r="P9" s="19" t="n"/>
+      <c r="Q9" s="19" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="25" t="n"/>
-      <c r="B10" s="25" t="n">
+      <c r="A10" s="19" t="n"/>
+      <c r="B10" s="19" t="n">
         <v>5</v>
       </c>
-      <c r="C10" s="25" t="n">
+      <c r="C10" s="19" t="n">
         <v>192</v>
       </c>
-      <c r="D10" s="25" t="n">
+      <c r="D10" s="19" t="n">
         <v>57</v>
       </c>
-      <c r="E10" s="25" t="n">
+      <c r="E10" s="19" t="n">
         <v>32</v>
       </c>
       <c r="F10" s="9" t="n"/>
-      <c r="G10" s="25" t="n">
+      <c r="G10" s="19" t="n">
         <v>92.34</v>
       </c>
       <c r="H10" s="9" t="n"/>
@@ -1668,19 +1697,19 @@
       <c r="M10" s="9" t="n"/>
       <c r="N10" s="9" t="n"/>
       <c r="O10" s="9" t="n"/>
-      <c r="P10" s="25" t="n"/>
-      <c r="Q10" s="25" t="n"/>
+      <c r="P10" s="19" t="n"/>
+      <c r="Q10" s="19" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="25" t="n">
+      <c r="A11" s="19" t="n">
         <v>5</v>
       </c>
-      <c r="B11" s="25" t="n"/>
-      <c r="C11" s="25" t="n"/>
-      <c r="D11" s="25" t="n"/>
-      <c r="E11" s="25" t="n"/>
+      <c r="B11" s="19" t="n"/>
+      <c r="C11" s="19" t="n"/>
+      <c r="D11" s="19" t="n"/>
+      <c r="E11" s="19" t="n"/>
       <c r="F11" s="9" t="n"/>
-      <c r="G11" s="25" t="n"/>
+      <c r="G11" s="19" t="n"/>
       <c r="H11" s="9" t="n"/>
       <c r="I11" s="9" t="n"/>
       <c r="J11" s="9" t="n"/>
@@ -1689,25 +1718,25 @@
       <c r="M11" s="9" t="n"/>
       <c r="N11" s="9" t="n"/>
       <c r="O11" s="9" t="n"/>
-      <c r="P11" s="25" t="n"/>
-      <c r="Q11" s="25" t="n"/>
+      <c r="P11" s="19" t="n"/>
+      <c r="Q11" s="19" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="25" t="n"/>
-      <c r="B12" s="25" t="n">
+      <c r="A12" s="19" t="n"/>
+      <c r="B12" s="19" t="n">
         <v>6</v>
       </c>
-      <c r="C12" s="25" t="n">
+      <c r="C12" s="19" t="n">
         <v>316</v>
       </c>
-      <c r="D12" s="25" t="n">
+      <c r="D12" s="19" t="n">
         <v>50</v>
       </c>
-      <c r="E12" s="25" t="n">
+      <c r="E12" s="19" t="n">
         <v>47</v>
       </c>
       <c r="F12" s="9" t="n"/>
-      <c r="G12" s="25" t="n">
+      <c r="G12" s="19" t="n">
         <v>63.15</v>
       </c>
       <c r="H12" s="9" t="n"/>
@@ -1718,19 +1747,19 @@
       <c r="M12" s="9" t="n"/>
       <c r="N12" s="9" t="n"/>
       <c r="O12" s="9" t="n"/>
-      <c r="P12" s="25" t="n"/>
-      <c r="Q12" s="25" t="n"/>
+      <c r="P12" s="19" t="n"/>
+      <c r="Q12" s="19" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="25" t="n">
+      <c r="A13" s="19" t="n">
         <v>6</v>
       </c>
-      <c r="B13" s="25" t="n"/>
-      <c r="C13" s="25" t="n"/>
-      <c r="D13" s="25" t="n"/>
-      <c r="E13" s="25" t="n"/>
+      <c r="B13" s="19" t="n"/>
+      <c r="C13" s="19" t="n"/>
+      <c r="D13" s="19" t="n"/>
+      <c r="E13" s="19" t="n"/>
       <c r="F13" s="9" t="n"/>
-      <c r="G13" s="25" t="n"/>
+      <c r="G13" s="19" t="n"/>
       <c r="H13" s="9" t="n"/>
       <c r="I13" s="9" t="n"/>
       <c r="J13" s="9" t="n"/>
@@ -1739,25 +1768,25 @@
       <c r="M13" s="9" t="n"/>
       <c r="N13" s="9" t="n"/>
       <c r="O13" s="9" t="n"/>
-      <c r="P13" s="25" t="n"/>
-      <c r="Q13" s="25" t="n"/>
+      <c r="P13" s="19" t="n"/>
+      <c r="Q13" s="19" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="25" t="n"/>
-      <c r="B14" s="25" t="n">
+      <c r="A14" s="19" t="n"/>
+      <c r="B14" s="19" t="n">
         <v>7</v>
       </c>
-      <c r="C14" s="25" t="n">
+      <c r="C14" s="19" t="n">
         <v>254</v>
       </c>
-      <c r="D14" s="25" t="n">
+      <c r="D14" s="19" t="n">
         <v>6</v>
       </c>
-      <c r="E14" s="25" t="n">
+      <c r="E14" s="19" t="n">
         <v>29</v>
       </c>
       <c r="F14" s="9" t="n"/>
-      <c r="G14" s="25" t="n">
+      <c r="G14" s="19" t="n">
         <v>86.34999999999999</v>
       </c>
       <c r="H14" s="9" t="n"/>
@@ -1768,19 +1797,19 @@
       <c r="M14" s="9" t="n"/>
       <c r="N14" s="9" t="n"/>
       <c r="O14" s="9" t="n"/>
-      <c r="P14" s="25" t="n"/>
-      <c r="Q14" s="25" t="n"/>
+      <c r="P14" s="19" t="n"/>
+      <c r="Q14" s="19" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="25" t="n">
+      <c r="A15" s="19" t="n">
         <v>7</v>
       </c>
-      <c r="B15" s="25" t="n"/>
-      <c r="C15" s="25" t="n"/>
-      <c r="D15" s="25" t="n"/>
-      <c r="E15" s="25" t="n"/>
+      <c r="B15" s="19" t="n"/>
+      <c r="C15" s="19" t="n"/>
+      <c r="D15" s="19" t="n"/>
+      <c r="E15" s="19" t="n"/>
       <c r="F15" s="9" t="n"/>
-      <c r="G15" s="25" t="n"/>
+      <c r="G15" s="19" t="n"/>
       <c r="H15" s="9" t="n"/>
       <c r="I15" s="9" t="n"/>
       <c r="J15" s="9" t="n"/>
@@ -1789,57 +1818,40 @@
       <c r="M15" s="9" t="n"/>
       <c r="N15" s="9" t="n"/>
       <c r="O15" s="9" t="n"/>
-      <c r="P15" s="25" t="n"/>
-      <c r="Q15" s="25" t="n"/>
+      <c r="P15" s="19" t="n"/>
+      <c r="Q15" s="19" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="25" t="n"/>
-      <c r="B16" s="25" t="n">
+      <c r="A16" s="17" t="n"/>
+      <c r="B16" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="C16" s="25" t="n">
+      <c r="C16" s="17" t="n">
         <v>332</v>
       </c>
-      <c r="D16" s="25" t="n">
+      <c r="D16" s="17" t="n">
         <v>25</v>
       </c>
-      <c r="E16" s="25" t="n">
+      <c r="E16" s="17" t="n">
         <v>49</v>
       </c>
-      <c r="F16" s="9" t="n"/>
-      <c r="G16" s="25" t="n">
+      <c r="F16" s="23" t="n"/>
+      <c r="G16" s="17" t="n">
         <v>59.85</v>
       </c>
-      <c r="H16" s="9" t="n"/>
-      <c r="I16" s="9" t="n"/>
-      <c r="J16" s="9" t="n"/>
-      <c r="K16" s="9" t="n"/>
-      <c r="L16" s="9" t="n"/>
-      <c r="M16" s="9" t="n"/>
-      <c r="N16" s="9" t="n"/>
-      <c r="O16" s="9" t="n"/>
-      <c r="P16" s="25" t="n"/>
-      <c r="Q16" s="25" t="n"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="25" t="n"/>
-      <c r="B17" s="25" t="n"/>
-      <c r="C17" s="25" t="n"/>
-      <c r="D17" s="25" t="n"/>
-      <c r="E17" s="25" t="n"/>
-      <c r="F17" s="9" t="n"/>
-      <c r="G17" s="2" t="n"/>
-      <c r="H17" s="2" t="n"/>
-      <c r="I17" s="2" t="n"/>
-      <c r="J17" s="2" t="n"/>
-      <c r="K17" s="2" t="n"/>
-      <c r="L17" s="9" t="n"/>
-      <c r="M17" s="9" t="n"/>
-      <c r="N17" s="9" t="n"/>
-      <c r="O17" s="9" t="n"/>
-      <c r="P17" s="25" t="n"/>
-      <c r="Q17" s="25" t="n"/>
-    </row>
+      <c r="H16" s="23" t="n"/>
+      <c r="I16" s="23" t="n"/>
+      <c r="J16" s="23" t="n"/>
+      <c r="K16" s="23" t="n"/>
+      <c r="L16" s="23" t="n"/>
+      <c r="M16" s="23" t="n"/>
+      <c r="N16" s="23" t="n"/>
+      <c r="O16" s="23" t="n"/>
+      <c r="P16" s="17" t="n"/>
+      <c r="Q16" s="17" t="n"/>
+    </row>
+    <row r="17"/>
+    <row r="18"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="O1:O2"/>
@@ -1859,106 +1871,106 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S17"/>
+  <dimension ref="A1:S18"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="S4" sqref="R4:S16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="33" t="inlineStr">
+      <c r="A1" s="34" t="inlineStr">
         <is>
           <t>▲</t>
         </is>
       </c>
-      <c r="B1" s="35" t="inlineStr">
+      <c r="B1" s="36" t="inlineStr">
         <is>
           <t>☐</t>
         </is>
       </c>
-      <c r="C1" s="36" t="inlineStr">
+      <c r="C1" s="37" t="inlineStr">
         <is>
           <t>Azimut</t>
         </is>
       </c>
-      <c r="D1" s="37" t="n"/>
-      <c r="E1" s="38" t="n"/>
-      <c r="F1" s="39" t="inlineStr">
+      <c r="D1" s="38" t="n"/>
+      <c r="E1" s="39" t="n"/>
+      <c r="F1" s="40" t="inlineStr">
         <is>
           <t>Azimut Decimal</t>
         </is>
       </c>
-      <c r="G1" s="40" t="inlineStr">
+      <c r="G1" s="41" t="inlineStr">
         <is>
           <t>DH</t>
         </is>
       </c>
-      <c r="H1" s="42" t="inlineStr">
+      <c r="H1" s="43" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="I1" s="31" t="inlineStr">
+      <c r="I1" s="32" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="J1" s="31" t="inlineStr">
+      <c r="J1" s="32" t="inlineStr">
         <is>
           <t>L^2</t>
         </is>
       </c>
-      <c r="K1" s="31" t="inlineStr">
+      <c r="K1" s="32" t="inlineStr">
         <is>
           <t>D^2</t>
         </is>
       </c>
-      <c r="L1" s="31" t="inlineStr">
+      <c r="L1" s="32" t="inlineStr">
         <is>
           <t>LD</t>
         </is>
       </c>
-      <c r="M1" s="31" t="inlineStr">
+      <c r="M1" s="32" t="inlineStr">
         <is>
           <t>(LD)^2</t>
         </is>
       </c>
-      <c r="N1" s="31" t="inlineStr">
+      <c r="N1" s="32" t="inlineStr">
         <is>
           <t>CY</t>
         </is>
       </c>
-      <c r="O1" s="31" t="inlineStr">
+      <c r="O1" s="32" t="inlineStr">
         <is>
           <t>CX</t>
         </is>
       </c>
-      <c r="P1" s="31" t="inlineStr">
+      <c r="P1" s="32" t="inlineStr">
         <is>
           <t>YCORREGIDO</t>
         </is>
       </c>
-      <c r="Q1" s="31" t="inlineStr">
+      <c r="Q1" s="32" t="inlineStr">
         <is>
           <t>XCORREGIDO</t>
         </is>
       </c>
-      <c r="R1" s="31" t="inlineStr">
+      <c r="R1" s="32" t="inlineStr">
         <is>
           <t>Norte</t>
         </is>
       </c>
-      <c r="S1" s="31" t="inlineStr">
+      <c r="S1" s="32" t="inlineStr">
         <is>
           <t>Este</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="34" t="n"/>
-      <c r="B2" s="32" t="n"/>
+    <row r="2" ht="15.75" customHeight="1" s="25" thickBot="1">
+      <c r="A2" s="35" t="n"/>
+      <c r="B2" s="33" t="n"/>
       <c r="C2" s="13" t="inlineStr">
         <is>
           <t>Grados</t>
@@ -1974,20 +1986,20 @@
           <t>Segundos</t>
         </is>
       </c>
-      <c r="F2" s="32" t="n"/>
-      <c r="G2" s="41" t="n"/>
-      <c r="H2" s="34" t="n"/>
-      <c r="I2" s="32" t="n"/>
-      <c r="J2" s="32" t="n"/>
-      <c r="K2" s="32" t="n"/>
-      <c r="L2" s="32" t="n"/>
-      <c r="M2" s="32" t="n"/>
-      <c r="N2" s="32" t="n"/>
-      <c r="O2" s="32" t="n"/>
-      <c r="P2" s="32" t="n"/>
-      <c r="Q2" s="32" t="n"/>
-      <c r="R2" s="32" t="n"/>
-      <c r="S2" s="32" t="n"/>
+      <c r="F2" s="33" t="n"/>
+      <c r="G2" s="42" t="n"/>
+      <c r="H2" s="35" t="n"/>
+      <c r="I2" s="33" t="n"/>
+      <c r="J2" s="33" t="n"/>
+      <c r="K2" s="33" t="n"/>
+      <c r="L2" s="33" t="n"/>
+      <c r="M2" s="33" t="n"/>
+      <c r="N2" s="33" t="n"/>
+      <c r="O2" s="33" t="n"/>
+      <c r="P2" s="33" t="n"/>
+      <c r="Q2" s="33" t="n"/>
+      <c r="R2" s="33" t="n"/>
+      <c r="S2" s="33" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="14" t="n">
@@ -1997,387 +2009,437 @@
       <c r="C3" s="14" t="n"/>
       <c r="D3" s="14" t="n"/>
       <c r="E3" s="14" t="n"/>
-      <c r="F3" s="32" t="n"/>
+      <c r="F3" s="33" t="n"/>
       <c r="G3" s="14" t="n"/>
-      <c r="H3" s="27" t="n"/>
-      <c r="I3" s="27" t="n"/>
-      <c r="J3" s="27" t="n"/>
-      <c r="K3" s="27" t="n"/>
-      <c r="L3" s="27" t="n"/>
-      <c r="M3" s="27" t="n"/>
-      <c r="N3" s="27" t="n"/>
-      <c r="O3" s="27" t="n"/>
-      <c r="P3" s="27" t="n"/>
-      <c r="Q3" s="27" t="n"/>
-      <c r="R3" s="25" t="n"/>
-      <c r="S3" s="25" t="n"/>
+      <c r="H3" s="21" t="n"/>
+      <c r="I3" s="21" t="n"/>
+      <c r="J3" s="21" t="n"/>
+      <c r="K3" s="21" t="n"/>
+      <c r="L3" s="21" t="n"/>
+      <c r="M3" s="21" t="n"/>
+      <c r="N3" s="21" t="n"/>
+      <c r="O3" s="21" t="n"/>
+      <c r="P3" s="21" t="n"/>
+      <c r="Q3" s="21" t="n"/>
+      <c r="R3" s="19" t="n"/>
+      <c r="S3" s="19" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="25" t="n"/>
-      <c r="B4" s="25" t="n">
+      <c r="A4" s="19" t="n"/>
+      <c r="B4" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="C4" s="25" t="n">
+      <c r="C4" s="19" t="n">
         <v>38</v>
       </c>
-      <c r="D4" s="25" t="n">
+      <c r="D4" s="19" t="n">
         <v>12</v>
       </c>
-      <c r="E4" s="25" t="n">
+      <c r="E4" s="19" t="n">
         <v>45</v>
       </c>
-      <c r="F4" s="27" t="n"/>
-      <c r="G4" s="25" t="n">
+      <c r="F4" s="21" t="n"/>
+      <c r="G4" s="19" t="n">
         <v>84.94</v>
       </c>
-      <c r="H4" s="27" t="n"/>
-      <c r="I4" s="27" t="n"/>
-      <c r="J4" s="27" t="n"/>
-      <c r="K4" s="27" t="n"/>
-      <c r="L4" s="27" t="n"/>
-      <c r="M4" s="27" t="n"/>
-      <c r="N4" s="27" t="n"/>
-      <c r="O4" s="27" t="n"/>
-      <c r="P4" s="22" t="n"/>
-      <c r="Q4" s="22" t="n"/>
-      <c r="R4" s="26" t="n"/>
-      <c r="S4" s="26" t="n"/>
+      <c r="H4" s="21" t="n"/>
+      <c r="I4" s="21" t="n"/>
+      <c r="J4" s="21" t="n"/>
+      <c r="K4" s="21" t="n"/>
+      <c r="L4" s="21" t="n"/>
+      <c r="M4" s="21" t="n"/>
+      <c r="N4" s="21" t="n"/>
+      <c r="O4" s="21" t="n"/>
+      <c r="P4" s="18" t="n"/>
+      <c r="Q4" s="18" t="n"/>
+      <c r="R4" s="20" t="n"/>
+      <c r="S4" s="20" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="25" t="n">
+      <c r="A5" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="B5" s="25" t="n"/>
-      <c r="C5" s="25" t="n"/>
-      <c r="D5" s="25" t="n"/>
-      <c r="E5" s="25" t="n"/>
-      <c r="F5" s="27" t="n"/>
-      <c r="G5" s="25" t="n"/>
-      <c r="H5" s="27" t="n"/>
-      <c r="I5" s="27" t="n"/>
-      <c r="J5" s="27" t="n"/>
-      <c r="K5" s="27" t="n"/>
-      <c r="L5" s="27" t="n"/>
-      <c r="M5" s="27" t="n"/>
-      <c r="N5" s="27" t="n"/>
-      <c r="O5" s="27" t="n"/>
-      <c r="P5" s="27" t="n"/>
-      <c r="Q5" s="27" t="n"/>
-      <c r="R5" s="26" t="n"/>
-      <c r="S5" s="27" t="n"/>
+      <c r="B5" s="19" t="n"/>
+      <c r="C5" s="19" t="n"/>
+      <c r="D5" s="19" t="n"/>
+      <c r="E5" s="19" t="n"/>
+      <c r="F5" s="21" t="n"/>
+      <c r="G5" s="19" t="n"/>
+      <c r="H5" s="21" t="n"/>
+      <c r="I5" s="21" t="n"/>
+      <c r="J5" s="21" t="n"/>
+      <c r="K5" s="21" t="n"/>
+      <c r="L5" s="21" t="n"/>
+      <c r="M5" s="21" t="n"/>
+      <c r="N5" s="21" t="n"/>
+      <c r="O5" s="21" t="n"/>
+      <c r="P5" s="21" t="n"/>
+      <c r="Q5" s="21" t="n"/>
+      <c r="R5" s="20" t="n"/>
+      <c r="S5" s="21" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="25" t="n"/>
-      <c r="B6" s="25" t="n">
+      <c r="A6" s="19" t="n"/>
+      <c r="B6" s="19" t="n">
         <v>3</v>
       </c>
-      <c r="C6" s="25" t="n">
+      <c r="C6" s="19" t="n">
         <v>76</v>
       </c>
-      <c r="D6" s="25" t="n">
+      <c r="D6" s="19" t="n">
         <v>34</v>
       </c>
-      <c r="E6" s="25" t="n">
+      <c r="E6" s="19" t="n">
         <v>30</v>
       </c>
-      <c r="F6" s="27" t="n"/>
-      <c r="G6" s="25" t="n">
+      <c r="F6" s="21" t="n"/>
+      <c r="G6" s="19" t="n">
         <v>75.27</v>
       </c>
-      <c r="H6" s="27" t="n"/>
-      <c r="I6" s="27" t="n"/>
-      <c r="J6" s="27" t="n"/>
-      <c r="K6" s="27" t="n"/>
-      <c r="L6" s="27" t="n"/>
-      <c r="M6" s="27" t="n"/>
-      <c r="N6" s="27" t="n"/>
-      <c r="O6" s="27" t="n"/>
-      <c r="P6" s="27" t="n"/>
-      <c r="Q6" s="27" t="n"/>
-      <c r="R6" s="26" t="n"/>
-      <c r="S6" s="26" t="n"/>
+      <c r="H6" s="21" t="n"/>
+      <c r="I6" s="21" t="n"/>
+      <c r="J6" s="21" t="n"/>
+      <c r="K6" s="21" t="n"/>
+      <c r="L6" s="21" t="n"/>
+      <c r="M6" s="21" t="n"/>
+      <c r="N6" s="21" t="n"/>
+      <c r="O6" s="21" t="n"/>
+      <c r="P6" s="21" t="n"/>
+      <c r="Q6" s="21" t="n"/>
+      <c r="R6" s="20" t="n"/>
+      <c r="S6" s="20" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="25" t="n">
+      <c r="A7" s="19" t="n">
         <v>3</v>
       </c>
-      <c r="B7" s="25" t="n"/>
-      <c r="C7" s="25" t="n"/>
-      <c r="D7" s="25" t="n"/>
-      <c r="E7" s="25" t="n"/>
-      <c r="F7" s="27" t="n"/>
-      <c r="G7" s="25" t="n"/>
-      <c r="H7" s="27" t="n"/>
-      <c r="I7" s="27" t="n"/>
-      <c r="J7" s="27" t="n"/>
-      <c r="K7" s="27" t="n"/>
-      <c r="L7" s="27" t="n"/>
-      <c r="M7" s="27" t="n"/>
-      <c r="N7" s="27" t="n"/>
-      <c r="O7" s="27" t="n"/>
-      <c r="P7" s="27" t="n"/>
-      <c r="Q7" s="27" t="n"/>
-      <c r="R7" s="26" t="n"/>
-      <c r="S7" s="26" t="n"/>
+      <c r="B7" s="19" t="n"/>
+      <c r="C7" s="19" t="n"/>
+      <c r="D7" s="19" t="n"/>
+      <c r="E7" s="19" t="n"/>
+      <c r="F7" s="21" t="n"/>
+      <c r="G7" s="19" t="n"/>
+      <c r="H7" s="21" t="n"/>
+      <c r="I7" s="21" t="n"/>
+      <c r="J7" s="21" t="n"/>
+      <c r="K7" s="21" t="n"/>
+      <c r="L7" s="21" t="n"/>
+      <c r="M7" s="21" t="n"/>
+      <c r="N7" s="21" t="n"/>
+      <c r="O7" s="21" t="n"/>
+      <c r="P7" s="21" t="n"/>
+      <c r="Q7" s="21" t="n"/>
+      <c r="R7" s="20" t="n"/>
+      <c r="S7" s="20" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="25" t="n"/>
-      <c r="B8" s="25" t="n">
+      <c r="A8" s="19" t="n"/>
+      <c r="B8" s="19" t="n">
         <v>4</v>
       </c>
-      <c r="C8" s="25" t="n">
+      <c r="C8" s="19" t="n">
         <v>144</v>
       </c>
-      <c r="D8" s="25" t="n">
+      <c r="D8" s="19" t="n">
         <v>49</v>
       </c>
-      <c r="E8" s="25" t="n">
+      <c r="E8" s="19" t="n">
         <v>48</v>
       </c>
-      <c r="F8" s="27" t="n"/>
-      <c r="G8" s="25" t="n">
+      <c r="F8" s="21" t="n"/>
+      <c r="G8" s="19" t="n">
         <v>85.29000000000001</v>
       </c>
-      <c r="H8" s="27" t="n"/>
-      <c r="I8" s="27" t="n"/>
-      <c r="J8" s="27" t="n"/>
-      <c r="K8" s="27" t="n"/>
-      <c r="L8" s="27" t="n"/>
-      <c r="M8" s="27" t="n"/>
-      <c r="N8" s="27" t="n"/>
-      <c r="O8" s="27" t="n"/>
-      <c r="P8" s="27" t="n"/>
-      <c r="Q8" s="27" t="n"/>
-      <c r="R8" s="26" t="n"/>
-      <c r="S8" s="26" t="n"/>
+      <c r="H8" s="21" t="n"/>
+      <c r="I8" s="21" t="n"/>
+      <c r="J8" s="21" t="n"/>
+      <c r="K8" s="21" t="n"/>
+      <c r="L8" s="21" t="n"/>
+      <c r="M8" s="21" t="n"/>
+      <c r="N8" s="21" t="n"/>
+      <c r="O8" s="21" t="n"/>
+      <c r="P8" s="21" t="n"/>
+      <c r="Q8" s="21" t="n"/>
+      <c r="R8" s="20" t="n"/>
+      <c r="S8" s="20" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="25" t="n">
+      <c r="A9" s="19" t="n">
         <v>4</v>
       </c>
-      <c r="B9" s="25" t="n"/>
-      <c r="C9" s="25" t="n"/>
-      <c r="D9" s="25" t="n"/>
-      <c r="E9" s="25" t="n"/>
-      <c r="F9" s="27" t="n"/>
-      <c r="G9" s="25" t="n"/>
-      <c r="H9" s="27" t="n"/>
-      <c r="I9" s="27" t="n"/>
-      <c r="J9" s="27" t="n"/>
-      <c r="K9" s="27" t="n"/>
-      <c r="L9" s="27" t="n"/>
-      <c r="M9" s="27" t="n"/>
-      <c r="N9" s="27" t="n"/>
-      <c r="O9" s="27" t="n"/>
-      <c r="P9" s="27" t="n"/>
-      <c r="Q9" s="27" t="n"/>
-      <c r="R9" s="26" t="n"/>
-      <c r="S9" s="26" t="n"/>
+      <c r="B9" s="19" t="n"/>
+      <c r="C9" s="19" t="n"/>
+      <c r="D9" s="19" t="n"/>
+      <c r="E9" s="19" t="n"/>
+      <c r="F9" s="21" t="n"/>
+      <c r="G9" s="19" t="n"/>
+      <c r="H9" s="21" t="n"/>
+      <c r="I9" s="21" t="n"/>
+      <c r="J9" s="21" t="n"/>
+      <c r="K9" s="21" t="n"/>
+      <c r="L9" s="21" t="n"/>
+      <c r="M9" s="21" t="n"/>
+      <c r="N9" s="21" t="n"/>
+      <c r="O9" s="21" t="n"/>
+      <c r="P9" s="21" t="n"/>
+      <c r="Q9" s="21" t="n"/>
+      <c r="R9" s="20" t="n"/>
+      <c r="S9" s="20" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="25" t="n"/>
-      <c r="B10" s="25" t="n">
+      <c r="A10" s="19" t="n"/>
+      <c r="B10" s="19" t="n">
         <v>5</v>
       </c>
-      <c r="C10" s="25" t="n">
+      <c r="C10" s="19" t="n">
         <v>192</v>
       </c>
-      <c r="D10" s="25" t="n">
+      <c r="D10" s="19" t="n">
         <v>57</v>
       </c>
-      <c r="E10" s="25" t="n">
+      <c r="E10" s="19" t="n">
         <v>32</v>
       </c>
-      <c r="F10" s="27" t="n"/>
-      <c r="G10" s="25" t="n">
+      <c r="F10" s="21" t="n"/>
+      <c r="G10" s="19" t="n">
         <v>92.34</v>
       </c>
-      <c r="H10" s="27" t="n"/>
-      <c r="I10" s="27" t="n"/>
-      <c r="J10" s="27" t="n"/>
-      <c r="K10" s="27" t="n"/>
-      <c r="L10" s="27" t="n"/>
-      <c r="M10" s="27" t="n"/>
-      <c r="N10" s="27" t="n"/>
-      <c r="O10" s="27" t="n"/>
-      <c r="P10" s="27" t="n"/>
-      <c r="Q10" s="27" t="n"/>
-      <c r="R10" s="26" t="n"/>
-      <c r="S10" s="26" t="n"/>
+      <c r="H10" s="21" t="n"/>
+      <c r="I10" s="21" t="n"/>
+      <c r="J10" s="21" t="n"/>
+      <c r="K10" s="21" t="n"/>
+      <c r="L10" s="21" t="n"/>
+      <c r="M10" s="21" t="n"/>
+      <c r="N10" s="21" t="n"/>
+      <c r="O10" s="21" t="n"/>
+      <c r="P10" s="21" t="n"/>
+      <c r="Q10" s="21" t="n"/>
+      <c r="R10" s="20" t="n"/>
+      <c r="S10" s="20" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="25" t="n">
+      <c r="A11" s="19" t="n">
         <v>5</v>
       </c>
-      <c r="B11" s="25" t="n"/>
-      <c r="C11" s="25" t="n"/>
-      <c r="D11" s="25" t="n"/>
-      <c r="E11" s="25" t="n"/>
-      <c r="F11" s="27" t="n"/>
-      <c r="G11" s="25" t="n"/>
-      <c r="H11" s="27" t="n"/>
-      <c r="I11" s="27" t="n"/>
-      <c r="J11" s="27" t="n"/>
-      <c r="K11" s="27" t="n"/>
-      <c r="L11" s="27" t="n"/>
-      <c r="M11" s="27" t="n"/>
-      <c r="N11" s="27" t="n"/>
-      <c r="O11" s="27" t="n"/>
-      <c r="P11" s="27" t="n"/>
-      <c r="Q11" s="27" t="n"/>
-      <c r="R11" s="26" t="n"/>
-      <c r="S11" s="26" t="n"/>
+      <c r="B11" s="19" t="n"/>
+      <c r="C11" s="19" t="n"/>
+      <c r="D11" s="19" t="n"/>
+      <c r="E11" s="19" t="n"/>
+      <c r="F11" s="21" t="n"/>
+      <c r="G11" s="19" t="n"/>
+      <c r="H11" s="21" t="n"/>
+      <c r="I11" s="21" t="n"/>
+      <c r="J11" s="21" t="n"/>
+      <c r="K11" s="21" t="n"/>
+      <c r="L11" s="21" t="n"/>
+      <c r="M11" s="21" t="n"/>
+      <c r="N11" s="21" t="n"/>
+      <c r="O11" s="21" t="n"/>
+      <c r="P11" s="21" t="n"/>
+      <c r="Q11" s="21" t="n"/>
+      <c r="R11" s="20" t="n"/>
+      <c r="S11" s="20" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="25" t="n"/>
-      <c r="B12" s="25" t="n">
+      <c r="A12" s="19" t="n"/>
+      <c r="B12" s="19" t="n">
         <v>6</v>
       </c>
-      <c r="C12" s="25" t="n">
+      <c r="C12" s="19" t="n">
         <v>316</v>
       </c>
-      <c r="D12" s="25" t="n">
+      <c r="D12" s="19" t="n">
         <v>50</v>
       </c>
-      <c r="E12" s="25" t="n">
+      <c r="E12" s="19" t="n">
         <v>47</v>
       </c>
-      <c r="F12" s="27" t="n"/>
-      <c r="G12" s="25" t="n">
+      <c r="F12" s="21" t="n"/>
+      <c r="G12" s="19" t="n">
         <v>63.15</v>
       </c>
-      <c r="H12" s="27" t="n"/>
-      <c r="I12" s="27" t="n"/>
-      <c r="J12" s="27" t="n"/>
-      <c r="K12" s="27" t="n"/>
-      <c r="L12" s="27" t="n"/>
-      <c r="M12" s="27" t="n"/>
-      <c r="N12" s="27" t="n"/>
-      <c r="O12" s="27" t="n"/>
-      <c r="P12" s="27" t="n"/>
-      <c r="Q12" s="27" t="n"/>
-      <c r="R12" s="26" t="n"/>
-      <c r="S12" s="26" t="n"/>
+      <c r="H12" s="21" t="n"/>
+      <c r="I12" s="21" t="n"/>
+      <c r="J12" s="21" t="n"/>
+      <c r="K12" s="21" t="n"/>
+      <c r="L12" s="21" t="n"/>
+      <c r="M12" s="21" t="n"/>
+      <c r="N12" s="21" t="n"/>
+      <c r="O12" s="21" t="n"/>
+      <c r="P12" s="21" t="n"/>
+      <c r="Q12" s="21" t="n"/>
+      <c r="R12" s="20" t="n"/>
+      <c r="S12" s="20" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="25" t="n">
+      <c r="A13" s="19" t="n">
         <v>6</v>
       </c>
-      <c r="B13" s="25" t="n"/>
-      <c r="C13" s="25" t="n"/>
-      <c r="D13" s="25" t="n"/>
-      <c r="E13" s="25" t="n"/>
-      <c r="F13" s="27" t="n"/>
-      <c r="G13" s="25" t="n"/>
-      <c r="H13" s="27" t="n"/>
-      <c r="I13" s="27" t="n"/>
-      <c r="J13" s="27" t="n"/>
-      <c r="K13" s="27" t="n"/>
-      <c r="L13" s="27" t="n"/>
-      <c r="M13" s="27" t="n"/>
-      <c r="N13" s="27" t="n"/>
-      <c r="O13" s="27" t="n"/>
-      <c r="P13" s="27" t="n"/>
-      <c r="Q13" s="27" t="n"/>
-      <c r="R13" s="26" t="n"/>
-      <c r="S13" s="26" t="n"/>
+      <c r="B13" s="19" t="n"/>
+      <c r="C13" s="19" t="n"/>
+      <c r="D13" s="19" t="n"/>
+      <c r="E13" s="19" t="n"/>
+      <c r="F13" s="21" t="n"/>
+      <c r="G13" s="19" t="n"/>
+      <c r="H13" s="21" t="n"/>
+      <c r="I13" s="21" t="n"/>
+      <c r="J13" s="21" t="n"/>
+      <c r="K13" s="21" t="n"/>
+      <c r="L13" s="21" t="n"/>
+      <c r="M13" s="21" t="n"/>
+      <c r="N13" s="21" t="n"/>
+      <c r="O13" s="21" t="n"/>
+      <c r="P13" s="21" t="n"/>
+      <c r="Q13" s="21" t="n"/>
+      <c r="R13" s="20" t="n"/>
+      <c r="S13" s="20" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="25" t="n"/>
-      <c r="B14" s="25" t="n">
+      <c r="A14" s="19" t="n"/>
+      <c r="B14" s="19" t="n">
         <v>7</v>
       </c>
-      <c r="C14" s="25" t="n">
+      <c r="C14" s="19" t="n">
         <v>254</v>
       </c>
-      <c r="D14" s="25" t="n">
+      <c r="D14" s="19" t="n">
         <v>6</v>
       </c>
-      <c r="E14" s="25" t="n">
+      <c r="E14" s="19" t="n">
         <v>29</v>
       </c>
-      <c r="F14" s="27" t="n"/>
-      <c r="G14" s="25" t="n">
+      <c r="F14" s="21" t="n"/>
+      <c r="G14" s="19" t="n">
         <v>86.34999999999999</v>
       </c>
-      <c r="H14" s="27" t="n"/>
-      <c r="I14" s="27" t="n"/>
-      <c r="J14" s="27" t="n"/>
-      <c r="K14" s="27" t="n"/>
-      <c r="L14" s="27" t="n"/>
-      <c r="M14" s="27" t="n"/>
-      <c r="N14" s="27" t="n"/>
-      <c r="O14" s="27" t="n"/>
-      <c r="P14" s="27" t="n"/>
-      <c r="Q14" s="27" t="n"/>
-      <c r="R14" s="26" t="n"/>
-      <c r="S14" s="26" t="n"/>
+      <c r="H14" s="21" t="n"/>
+      <c r="I14" s="21" t="n"/>
+      <c r="J14" s="21" t="n"/>
+      <c r="K14" s="21" t="n"/>
+      <c r="L14" s="21" t="n"/>
+      <c r="M14" s="21" t="n"/>
+      <c r="N14" s="21" t="n"/>
+      <c r="O14" s="21" t="n"/>
+      <c r="P14" s="21" t="n"/>
+      <c r="Q14" s="21" t="n"/>
+      <c r="R14" s="20" t="n"/>
+      <c r="S14" s="20" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="25" t="n">
+      <c r="A15" s="19" t="n">
         <v>7</v>
       </c>
-      <c r="B15" s="25" t="n"/>
-      <c r="C15" s="25" t="n"/>
-      <c r="D15" s="25" t="n"/>
-      <c r="E15" s="25" t="n"/>
-      <c r="F15" s="27" t="n"/>
-      <c r="G15" s="25" t="n"/>
-      <c r="H15" s="27" t="n"/>
-      <c r="I15" s="27" t="n"/>
-      <c r="J15" s="27" t="n"/>
-      <c r="K15" s="27" t="n"/>
-      <c r="L15" s="27" t="n"/>
-      <c r="M15" s="27" t="n"/>
-      <c r="N15" s="27" t="n"/>
-      <c r="O15" s="27" t="n"/>
-      <c r="P15" s="27" t="n"/>
-      <c r="Q15" s="27" t="n"/>
-      <c r="R15" s="26" t="n"/>
-      <c r="S15" s="26" t="n"/>
+      <c r="B15" s="19" t="n"/>
+      <c r="C15" s="19" t="n"/>
+      <c r="D15" s="19" t="n"/>
+      <c r="E15" s="19" t="n"/>
+      <c r="F15" s="21" t="n"/>
+      <c r="G15" s="19" t="n"/>
+      <c r="H15" s="21" t="n"/>
+      <c r="I15" s="21" t="n"/>
+      <c r="J15" s="21" t="n"/>
+      <c r="K15" s="21" t="n"/>
+      <c r="L15" s="21" t="n"/>
+      <c r="M15" s="21" t="n"/>
+      <c r="N15" s="21" t="n"/>
+      <c r="O15" s="21" t="n"/>
+      <c r="P15" s="21" t="n"/>
+      <c r="Q15" s="21" t="n"/>
+      <c r="R15" s="20" t="n"/>
+      <c r="S15" s="20" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="25" t="n"/>
-      <c r="B16" s="25" t="n">
+      <c r="A16" s="17" t="n"/>
+      <c r="B16" s="17" t="n">
+        <v>8</v>
+      </c>
+      <c r="C16" s="17" t="n">
+        <v>332</v>
+      </c>
+      <c r="D16" s="17" t="n">
+        <v>25</v>
+      </c>
+      <c r="E16" s="17" t="n">
+        <v>49</v>
+      </c>
+      <c r="F16" s="28" t="n"/>
+      <c r="G16" s="17" t="n">
+        <v>59.85</v>
+      </c>
+      <c r="H16" s="28" t="n"/>
+      <c r="I16" s="28" t="n"/>
+      <c r="J16" s="28" t="n"/>
+      <c r="K16" s="28" t="n"/>
+      <c r="L16" s="28" t="n"/>
+      <c r="M16" s="28" t="n"/>
+      <c r="N16" s="28" t="n"/>
+      <c r="O16" s="28" t="n"/>
+      <c r="P16" s="28" t="n"/>
+      <c r="Q16" s="28" t="n"/>
+      <c r="R16" s="29" t="n"/>
+      <c r="S16" s="29" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="19" t="n">
+        <v>8</v>
+      </c>
+      <c r="B17" s="19" t="n"/>
+      <c r="C17" s="19" t="n"/>
+      <c r="D17" s="19" t="n"/>
+      <c r="E17" s="19" t="n"/>
+      <c r="F17" s="21" t="n"/>
+      <c r="G17" s="19" t="n"/>
+      <c r="H17" s="21" t="n"/>
+      <c r="I17" s="21" t="n"/>
+      <c r="J17" s="21" t="n"/>
+      <c r="K17" s="21" t="n"/>
+      <c r="L17" s="21" t="n"/>
+      <c r="M17" s="21" t="n"/>
+      <c r="N17" s="21" t="n"/>
+      <c r="O17" s="21" t="n"/>
+      <c r="P17" s="21" t="n"/>
+      <c r="Q17" s="21" t="n"/>
+      <c r="R17" s="20" t="n"/>
+      <c r="S17" s="20" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="17" t="n"/>
+      <c r="B18" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="C16" s="25" t="n">
+      <c r="C18" s="17" t="n">
         <v>332</v>
       </c>
-      <c r="D16" s="25" t="n">
+      <c r="D18" s="17" t="n">
         <v>25</v>
       </c>
-      <c r="E16" s="25" t="n">
+      <c r="E18" s="17" t="n">
         <v>49</v>
       </c>
-      <c r="F16" s="27" t="n"/>
-      <c r="G16" s="25" t="n">
+      <c r="F18" s="28" t="n"/>
+      <c r="G18" s="17" t="n">
         <v>59.85</v>
       </c>
-      <c r="H16" s="27" t="n"/>
-      <c r="I16" s="27" t="n"/>
-      <c r="J16" s="27" t="n"/>
-      <c r="K16" s="27" t="n"/>
-      <c r="L16" s="27" t="n"/>
-      <c r="M16" s="27" t="n"/>
-      <c r="N16" s="27" t="n"/>
-      <c r="O16" s="27" t="n"/>
-      <c r="P16" s="27" t="n"/>
-      <c r="Q16" s="27" t="n"/>
-      <c r="R16" s="26" t="n"/>
-      <c r="S16" s="26" t="n"/>
-    </row>
-    <row r="17">
-      <c r="G17" s="4" t="n"/>
-      <c r="H17" s="5" t="n"/>
-      <c r="I17" s="5" t="n"/>
-      <c r="L17" s="3" t="n"/>
-      <c r="M17" s="3" t="n"/>
-      <c r="P17" s="23" t="n"/>
-      <c r="Q17" s="24" t="n"/>
+      <c r="H18" s="28" t="n"/>
+      <c r="I18" s="28" t="n"/>
+      <c r="J18" s="28" t="n"/>
+      <c r="K18" s="28" t="n"/>
+      <c r="L18" s="28" t="n"/>
+      <c r="M18" s="28" t="n"/>
+      <c r="N18" s="28" t="n"/>
+      <c r="O18" s="28" t="n"/>
+      <c r="P18" s="28" t="n"/>
+      <c r="Q18" s="28" t="n"/>
+      <c r="R18" s="29" t="n"/>
+      <c r="S18" s="29" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="S1:S2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -2390,11 +2452,6 @@
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="M1:M2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="S1:S2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -2415,90 +2472,90 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col width="3.140625" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="2.85546875" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="7.140625" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="8.7109375" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="9.5703125" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="14.85546875" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="3.140625" bestFit="1" customWidth="1" style="25" min="1" max="1"/>
+    <col width="2.85546875" bestFit="1" customWidth="1" style="25" min="2" max="2"/>
+    <col width="7.140625" bestFit="1" customWidth="1" style="25" min="3" max="3"/>
+    <col width="8.7109375" bestFit="1" customWidth="1" style="25" min="4" max="4"/>
+    <col width="9.5703125" bestFit="1" customWidth="1" style="25" min="5" max="5"/>
+    <col width="14.85546875" bestFit="1" customWidth="1" style="25" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="43" t="inlineStr">
+      <c r="A1" s="44" t="inlineStr">
         <is>
           <t>▲</t>
         </is>
       </c>
-      <c r="B1" s="39" t="inlineStr">
+      <c r="B1" s="40" t="inlineStr">
         <is>
           <t>☐</t>
         </is>
       </c>
-      <c r="C1" s="44" t="inlineStr">
+      <c r="C1" s="45" t="inlineStr">
         <is>
           <t>Azimut</t>
         </is>
       </c>
-      <c r="D1" s="37" t="n"/>
-      <c r="E1" s="38" t="n"/>
-      <c r="F1" s="39" t="inlineStr">
+      <c r="D1" s="38" t="n"/>
+      <c r="E1" s="39" t="n"/>
+      <c r="F1" s="40" t="inlineStr">
         <is>
           <t>Azimut Decimal</t>
         </is>
       </c>
-      <c r="G1" s="45" t="inlineStr">
+      <c r="G1" s="46" t="inlineStr">
         <is>
           <t>DH</t>
         </is>
       </c>
-      <c r="H1" s="42" t="inlineStr">
+      <c r="H1" s="43" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="I1" s="31" t="inlineStr">
+      <c r="I1" s="32" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="J1" s="31" t="inlineStr">
+      <c r="J1" s="32" t="inlineStr">
         <is>
           <t>CY</t>
         </is>
       </c>
-      <c r="K1" s="31" t="inlineStr">
+      <c r="K1" s="32" t="inlineStr">
         <is>
           <t>CX</t>
         </is>
       </c>
-      <c r="L1" s="31" t="inlineStr">
+      <c r="L1" s="32" t="inlineStr">
         <is>
           <t>YC</t>
         </is>
       </c>
-      <c r="M1" s="31" t="inlineStr">
+      <c r="M1" s="32" t="inlineStr">
         <is>
           <t>XC</t>
         </is>
       </c>
-      <c r="N1" s="31" t="inlineStr">
+      <c r="N1" s="32" t="inlineStr">
         <is>
           <t>Norte</t>
         </is>
       </c>
-      <c r="O1" s="31" t="inlineStr">
+      <c r="O1" s="32" t="inlineStr">
         <is>
           <t>Este</t>
         </is>
       </c>
-      <c r="P1" s="27" t="n"/>
-      <c r="Q1" s="27" t="n"/>
-      <c r="R1" s="27" t="n"/>
-      <c r="S1" s="27" t="n"/>
-    </row>
-    <row r="2" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="34" t="n"/>
-      <c r="B2" s="32" t="n"/>
+      <c r="P1" s="21" t="n"/>
+      <c r="Q1" s="21" t="n"/>
+      <c r="R1" s="21" t="n"/>
+      <c r="S1" s="21" t="n"/>
+    </row>
+    <row r="2" ht="15.75" customHeight="1" s="25" thickBot="1">
+      <c r="A2" s="35" t="n"/>
+      <c r="B2" s="33" t="n"/>
       <c r="C2" s="1" t="inlineStr">
         <is>
           <t>Grados</t>
@@ -2514,576 +2571,576 @@
           <t>Segundos</t>
         </is>
       </c>
-      <c r="F2" s="32" t="n"/>
-      <c r="G2" s="41" t="n"/>
-      <c r="H2" s="34" t="n"/>
-      <c r="I2" s="32" t="n"/>
-      <c r="J2" s="32" t="n"/>
-      <c r="K2" s="32" t="n"/>
-      <c r="L2" s="32" t="n"/>
-      <c r="M2" s="32" t="n"/>
-      <c r="N2" s="32" t="n"/>
-      <c r="O2" s="32" t="n"/>
-      <c r="P2" s="27" t="n"/>
-      <c r="Q2" s="27" t="n"/>
-      <c r="R2" s="27" t="n"/>
-      <c r="S2" s="27" t="n"/>
+      <c r="F2" s="33" t="n"/>
+      <c r="G2" s="42" t="n"/>
+      <c r="H2" s="35" t="n"/>
+      <c r="I2" s="33" t="n"/>
+      <c r="J2" s="33" t="n"/>
+      <c r="K2" s="33" t="n"/>
+      <c r="L2" s="33" t="n"/>
+      <c r="M2" s="33" t="n"/>
+      <c r="N2" s="33" t="n"/>
+      <c r="O2" s="33" t="n"/>
+      <c r="P2" s="21" t="n"/>
+      <c r="Q2" s="21" t="n"/>
+      <c r="R2" s="21" t="n"/>
+      <c r="S2" s="21" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="32" t="n">
+      <c r="A3" s="33" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="32" t="n"/>
-      <c r="C3" s="32" t="n"/>
-      <c r="D3" s="32" t="n"/>
-      <c r="E3" s="32" t="n"/>
-      <c r="F3" s="32" t="n"/>
-      <c r="G3" s="32" t="n"/>
-      <c r="H3" s="27" t="n"/>
-      <c r="I3" s="27" t="n"/>
-      <c r="J3" s="27" t="n"/>
-      <c r="K3" s="27" t="n"/>
-      <c r="L3" s="27" t="n"/>
-      <c r="M3" s="27" t="n"/>
+      <c r="B3" s="33" t="n"/>
+      <c r="C3" s="33" t="n"/>
+      <c r="D3" s="33" t="n"/>
+      <c r="E3" s="33" t="n"/>
+      <c r="F3" s="33" t="n"/>
+      <c r="G3" s="33" t="n"/>
+      <c r="H3" s="21" t="n"/>
+      <c r="I3" s="21" t="n"/>
+      <c r="J3" s="21" t="n"/>
+      <c r="K3" s="21" t="n"/>
+      <c r="L3" s="21" t="n"/>
+      <c r="M3" s="21" t="n"/>
       <c r="N3" s="2" t="n">
         <v>2000</v>
       </c>
       <c r="O3" s="2" t="n">
         <v>2000</v>
       </c>
-      <c r="P3" s="27" t="n"/>
-      <c r="Q3" s="27" t="n"/>
-      <c r="R3" s="27" t="n"/>
-      <c r="S3" s="27" t="n"/>
+      <c r="P3" s="21" t="n"/>
+      <c r="Q3" s="21" t="n"/>
+      <c r="R3" s="21" t="n"/>
+      <c r="S3" s="21" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="27" t="n"/>
-      <c r="B4" s="27" t="n">
+      <c r="A4" s="21" t="n"/>
+      <c r="B4" s="21" t="n">
         <v>2</v>
       </c>
-      <c r="C4" s="27" t="n">
+      <c r="C4" s="21" t="n">
         <v>38</v>
       </c>
-      <c r="D4" s="27" t="n">
+      <c r="D4" s="21" t="n">
         <v>12</v>
       </c>
-      <c r="E4" s="27" t="n">
+      <c r="E4" s="21" t="n">
         <v>45</v>
       </c>
-      <c r="F4" s="27">
+      <c r="F4" s="21">
         <f>RADIANS(C4+(D4/60)+(E4/3600))</f>
         <v/>
       </c>
-      <c r="G4" s="27" t="n">
+      <c r="G4" s="21" t="n">
         <v>84.94</v>
       </c>
-      <c r="H4" s="27">
+      <c r="H4" s="21">
         <f>COS(F4)*G4</f>
         <v/>
       </c>
-      <c r="I4" s="27">
+      <c r="I4" s="21">
         <f>SIN(F4)*G4</f>
         <v/>
       </c>
-      <c r="J4" s="27">
+      <c r="J4" s="21">
         <f>($H$17/$G$17)*G4</f>
         <v/>
       </c>
-      <c r="K4" s="27">
+      <c r="K4" s="21">
         <f>($I$17/$G$17)*G4</f>
         <v/>
       </c>
-      <c r="L4" s="27">
+      <c r="L4" s="21">
         <f>H4-J4</f>
         <v/>
       </c>
-      <c r="M4" s="27">
+      <c r="M4" s="21">
         <f>I4-K4</f>
         <v/>
       </c>
-      <c r="N4" s="27">
+      <c r="N4" s="21">
         <f>N3+L4</f>
         <v/>
       </c>
-      <c r="O4" s="27">
+      <c r="O4" s="21">
         <f>O3+M4</f>
         <v/>
       </c>
-      <c r="P4" s="27" t="n"/>
-      <c r="Q4" s="27" t="n"/>
-      <c r="R4" s="27" t="n"/>
-      <c r="S4" s="27" t="n"/>
+      <c r="P4" s="21" t="n"/>
+      <c r="Q4" s="21" t="n"/>
+      <c r="R4" s="21" t="n"/>
+      <c r="S4" s="21" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="27" t="n">
+      <c r="A5" s="21" t="n">
         <v>2</v>
       </c>
-      <c r="B5" s="27" t="n"/>
-      <c r="C5" s="27" t="n"/>
-      <c r="D5" s="27" t="n"/>
-      <c r="E5" s="27" t="n"/>
-      <c r="F5" s="27" t="n"/>
-      <c r="G5" s="27" t="n"/>
-      <c r="H5" s="27" t="n"/>
-      <c r="I5" s="27" t="n"/>
-      <c r="J5" s="27" t="n"/>
-      <c r="K5" s="27" t="n"/>
-      <c r="L5" s="27" t="n"/>
-      <c r="M5" s="27" t="n"/>
-      <c r="N5" s="27" t="n"/>
-      <c r="O5" s="27" t="n"/>
-      <c r="P5" s="27" t="n"/>
-      <c r="Q5" s="27" t="n"/>
-      <c r="R5" s="27" t="n"/>
-      <c r="S5" s="27" t="n"/>
+      <c r="B5" s="21" t="n"/>
+      <c r="C5" s="21" t="n"/>
+      <c r="D5" s="21" t="n"/>
+      <c r="E5" s="21" t="n"/>
+      <c r="F5" s="21" t="n"/>
+      <c r="G5" s="21" t="n"/>
+      <c r="H5" s="21" t="n"/>
+      <c r="I5" s="21" t="n"/>
+      <c r="J5" s="21" t="n"/>
+      <c r="K5" s="21" t="n"/>
+      <c r="L5" s="21" t="n"/>
+      <c r="M5" s="21" t="n"/>
+      <c r="N5" s="21" t="n"/>
+      <c r="O5" s="21" t="n"/>
+      <c r="P5" s="21" t="n"/>
+      <c r="Q5" s="21" t="n"/>
+      <c r="R5" s="21" t="n"/>
+      <c r="S5" s="21" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="27" t="n"/>
-      <c r="B6" s="27" t="n">
+      <c r="A6" s="21" t="n"/>
+      <c r="B6" s="21" t="n">
         <v>3</v>
       </c>
-      <c r="C6" s="27" t="n">
+      <c r="C6" s="21" t="n">
         <v>76</v>
       </c>
-      <c r="D6" s="27" t="n">
+      <c r="D6" s="21" t="n">
         <v>34</v>
       </c>
-      <c r="E6" s="27" t="n">
+      <c r="E6" s="21" t="n">
         <v>30</v>
       </c>
-      <c r="F6" s="27">
+      <c r="F6" s="21">
         <f>RADIANS(C6+(D6/60)+(E6/3600))</f>
         <v/>
       </c>
-      <c r="G6" s="27" t="n">
+      <c r="G6" s="21" t="n">
         <v>75.27</v>
       </c>
-      <c r="H6" s="27">
+      <c r="H6" s="21">
         <f>COS(F6)*G6</f>
         <v/>
       </c>
-      <c r="I6" s="27">
+      <c r="I6" s="21">
         <f>SIN(F6)*G6</f>
         <v/>
       </c>
-      <c r="J6" s="27">
+      <c r="J6" s="21">
         <f>($H$17/$G$17)*G6</f>
         <v/>
       </c>
-      <c r="K6" s="27">
+      <c r="K6" s="21">
         <f>($I$17/$G$17)*G6</f>
         <v/>
       </c>
-      <c r="L6" s="27">
+      <c r="L6" s="21">
         <f>H6-J6</f>
         <v/>
       </c>
-      <c r="M6" s="27">
+      <c r="M6" s="21">
         <f>I6-K6</f>
         <v/>
       </c>
-      <c r="N6" s="27">
+      <c r="N6" s="21">
         <f>N4+L6</f>
         <v/>
       </c>
-      <c r="O6" s="27">
+      <c r="O6" s="21">
         <f>O4+M6</f>
         <v/>
       </c>
-      <c r="P6" s="27" t="n"/>
-      <c r="Q6" s="27" t="n"/>
-      <c r="R6" s="27" t="n"/>
-      <c r="S6" s="27" t="n"/>
+      <c r="P6" s="21" t="n"/>
+      <c r="Q6" s="21" t="n"/>
+      <c r="R6" s="21" t="n"/>
+      <c r="S6" s="21" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="27" t="n">
+      <c r="A7" s="21" t="n">
         <v>3</v>
       </c>
-      <c r="B7" s="27" t="n"/>
-      <c r="C7" s="27" t="n"/>
-      <c r="D7" s="27" t="n"/>
-      <c r="E7" s="27" t="n"/>
-      <c r="F7" s="27" t="n"/>
-      <c r="G7" s="27" t="n"/>
-      <c r="H7" s="27" t="n"/>
-      <c r="I7" s="27" t="n"/>
-      <c r="J7" s="27" t="n"/>
-      <c r="K7" s="27" t="n"/>
-      <c r="L7" s="27" t="n"/>
-      <c r="M7" s="27" t="n"/>
-      <c r="N7" s="27" t="n"/>
-      <c r="O7" s="27" t="n"/>
-      <c r="P7" s="27" t="n"/>
-      <c r="Q7" s="27" t="n"/>
-      <c r="R7" s="27" t="n"/>
-      <c r="S7" s="27" t="n"/>
+      <c r="B7" s="21" t="n"/>
+      <c r="C7" s="21" t="n"/>
+      <c r="D7" s="21" t="n"/>
+      <c r="E7" s="21" t="n"/>
+      <c r="F7" s="21" t="n"/>
+      <c r="G7" s="21" t="n"/>
+      <c r="H7" s="21" t="n"/>
+      <c r="I7" s="21" t="n"/>
+      <c r="J7" s="21" t="n"/>
+      <c r="K7" s="21" t="n"/>
+      <c r="L7" s="21" t="n"/>
+      <c r="M7" s="21" t="n"/>
+      <c r="N7" s="21" t="n"/>
+      <c r="O7" s="21" t="n"/>
+      <c r="P7" s="21" t="n"/>
+      <c r="Q7" s="21" t="n"/>
+      <c r="R7" s="21" t="n"/>
+      <c r="S7" s="21" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="27" t="n"/>
-      <c r="B8" s="27" t="n">
+      <c r="A8" s="21" t="n"/>
+      <c r="B8" s="21" t="n">
         <v>4</v>
       </c>
-      <c r="C8" s="27" t="n">
+      <c r="C8" s="21" t="n">
         <v>144</v>
       </c>
-      <c r="D8" s="27" t="n">
+      <c r="D8" s="21" t="n">
         <v>49</v>
       </c>
-      <c r="E8" s="27" t="n">
+      <c r="E8" s="21" t="n">
         <v>48</v>
       </c>
-      <c r="F8" s="27">
+      <c r="F8" s="21">
         <f>RADIANS(C8+(D8/60)+(E8/3600))</f>
         <v/>
       </c>
-      <c r="G8" s="27" t="n">
+      <c r="G8" s="21" t="n">
         <v>85.29000000000001</v>
       </c>
-      <c r="H8" s="27">
+      <c r="H8" s="21">
         <f>COS(F8)*G8</f>
         <v/>
       </c>
-      <c r="I8" s="27">
+      <c r="I8" s="21">
         <f>SIN(F8)*G8</f>
         <v/>
       </c>
-      <c r="J8" s="27">
+      <c r="J8" s="21">
         <f>($H$17/$G$17)*G8</f>
         <v/>
       </c>
-      <c r="K8" s="27">
+      <c r="K8" s="21">
         <f>($I$17/$G$17)*G8</f>
         <v/>
       </c>
-      <c r="L8" s="27">
+      <c r="L8" s="21">
         <f>H8-J8</f>
         <v/>
       </c>
-      <c r="M8" s="27">
+      <c r="M8" s="21">
         <f>I8-K8</f>
         <v/>
       </c>
-      <c r="N8" s="27">
+      <c r="N8" s="21">
         <f>N6+L8</f>
         <v/>
       </c>
-      <c r="O8" s="27">
+      <c r="O8" s="21">
         <f>O6+M8</f>
         <v/>
       </c>
-      <c r="P8" s="27" t="n"/>
-      <c r="Q8" s="27" t="n"/>
-      <c r="R8" s="27" t="n"/>
-      <c r="S8" s="27" t="n"/>
+      <c r="P8" s="21" t="n"/>
+      <c r="Q8" s="21" t="n"/>
+      <c r="R8" s="21" t="n"/>
+      <c r="S8" s="21" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="27" t="n">
+      <c r="A9" s="21" t="n">
         <v>4</v>
       </c>
-      <c r="B9" s="27" t="n"/>
-      <c r="C9" s="27" t="n"/>
-      <c r="D9" s="27" t="n"/>
-      <c r="E9" s="27" t="n"/>
-      <c r="F9" s="27" t="n"/>
-      <c r="G9" s="27" t="n"/>
-      <c r="H9" s="27" t="n"/>
-      <c r="I9" s="27" t="n"/>
-      <c r="J9" s="27" t="n"/>
-      <c r="K9" s="27" t="n"/>
-      <c r="L9" s="27" t="n"/>
-      <c r="M9" s="27" t="n"/>
-      <c r="N9" s="27" t="n"/>
-      <c r="O9" s="27" t="n"/>
-      <c r="P9" s="27" t="n"/>
-      <c r="Q9" s="27" t="n"/>
-      <c r="R9" s="27" t="n"/>
-      <c r="S9" s="27" t="n"/>
+      <c r="B9" s="21" t="n"/>
+      <c r="C9" s="21" t="n"/>
+      <c r="D9" s="21" t="n"/>
+      <c r="E9" s="21" t="n"/>
+      <c r="F9" s="21" t="n"/>
+      <c r="G9" s="21" t="n"/>
+      <c r="H9" s="21" t="n"/>
+      <c r="I9" s="21" t="n"/>
+      <c r="J9" s="21" t="n"/>
+      <c r="K9" s="21" t="n"/>
+      <c r="L9" s="21" t="n"/>
+      <c r="M9" s="21" t="n"/>
+      <c r="N9" s="21" t="n"/>
+      <c r="O9" s="21" t="n"/>
+      <c r="P9" s="21" t="n"/>
+      <c r="Q9" s="21" t="n"/>
+      <c r="R9" s="21" t="n"/>
+      <c r="S9" s="21" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="27" t="n"/>
-      <c r="B10" s="27" t="n">
+      <c r="A10" s="21" t="n"/>
+      <c r="B10" s="21" t="n">
         <v>5</v>
       </c>
-      <c r="C10" s="27" t="n">
+      <c r="C10" s="21" t="n">
         <v>192</v>
       </c>
-      <c r="D10" s="27" t="n">
+      <c r="D10" s="21" t="n">
         <v>57</v>
       </c>
-      <c r="E10" s="27" t="n">
+      <c r="E10" s="21" t="n">
         <v>32</v>
       </c>
-      <c r="F10" s="27">
+      <c r="F10" s="21">
         <f>RADIANS(C10+(D10/60)+(E10/3600))</f>
         <v/>
       </c>
-      <c r="G10" s="27" t="n">
+      <c r="G10" s="21" t="n">
         <v>92.34</v>
       </c>
-      <c r="H10" s="27">
+      <c r="H10" s="21">
         <f>COS(F10)*G10</f>
         <v/>
       </c>
-      <c r="I10" s="27">
+      <c r="I10" s="21">
         <f>SIN(F10)*G10</f>
         <v/>
       </c>
-      <c r="J10" s="27">
+      <c r="J10" s="21">
         <f>($H$17/$G$17)*G10</f>
         <v/>
       </c>
-      <c r="K10" s="27">
+      <c r="K10" s="21">
         <f>($I$17/$G$17)*G10</f>
         <v/>
       </c>
-      <c r="L10" s="27">
+      <c r="L10" s="21">
         <f>H10-J10</f>
         <v/>
       </c>
-      <c r="M10" s="27">
+      <c r="M10" s="21">
         <f>I10-K10</f>
         <v/>
       </c>
-      <c r="N10" s="27">
+      <c r="N10" s="21">
         <f>N8+L10</f>
         <v/>
       </c>
-      <c r="O10" s="27">
+      <c r="O10" s="21">
         <f>O8+M10</f>
         <v/>
       </c>
-      <c r="P10" s="27" t="n"/>
-      <c r="Q10" s="27" t="n"/>
-      <c r="R10" s="27" t="n"/>
-      <c r="S10" s="27" t="n"/>
+      <c r="P10" s="21" t="n"/>
+      <c r="Q10" s="21" t="n"/>
+      <c r="R10" s="21" t="n"/>
+      <c r="S10" s="21" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="27" t="n">
+      <c r="A11" s="21" t="n">
         <v>5</v>
       </c>
-      <c r="B11" s="27" t="n"/>
-      <c r="C11" s="27" t="n"/>
-      <c r="D11" s="27" t="n"/>
-      <c r="E11" s="27" t="n"/>
-      <c r="F11" s="27" t="n"/>
-      <c r="G11" s="27" t="n"/>
-      <c r="H11" s="27" t="n"/>
-      <c r="I11" s="27" t="n"/>
-      <c r="J11" s="27" t="n"/>
-      <c r="K11" s="27" t="n"/>
-      <c r="L11" s="27" t="n"/>
-      <c r="M11" s="27" t="n"/>
-      <c r="N11" s="27" t="n"/>
-      <c r="O11" s="27" t="n"/>
-      <c r="P11" s="27" t="n"/>
-      <c r="Q11" s="27" t="n"/>
-      <c r="R11" s="27" t="n"/>
-      <c r="S11" s="27" t="n"/>
+      <c r="B11" s="21" t="n"/>
+      <c r="C11" s="21" t="n"/>
+      <c r="D11" s="21" t="n"/>
+      <c r="E11" s="21" t="n"/>
+      <c r="F11" s="21" t="n"/>
+      <c r="G11" s="21" t="n"/>
+      <c r="H11" s="21" t="n"/>
+      <c r="I11" s="21" t="n"/>
+      <c r="J11" s="21" t="n"/>
+      <c r="K11" s="21" t="n"/>
+      <c r="L11" s="21" t="n"/>
+      <c r="M11" s="21" t="n"/>
+      <c r="N11" s="21" t="n"/>
+      <c r="O11" s="21" t="n"/>
+      <c r="P11" s="21" t="n"/>
+      <c r="Q11" s="21" t="n"/>
+      <c r="R11" s="21" t="n"/>
+      <c r="S11" s="21" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="27" t="n"/>
-      <c r="B12" s="27" t="n">
+      <c r="A12" s="21" t="n"/>
+      <c r="B12" s="21" t="n">
         <v>6</v>
       </c>
-      <c r="C12" s="27" t="n">
+      <c r="C12" s="21" t="n">
         <v>316</v>
       </c>
-      <c r="D12" s="27" t="n">
+      <c r="D12" s="21" t="n">
         <v>50</v>
       </c>
-      <c r="E12" s="27" t="n">
+      <c r="E12" s="21" t="n">
         <v>47</v>
       </c>
-      <c r="F12" s="27">
+      <c r="F12" s="21">
         <f>RADIANS(C12+(D12/60)+(E12/3600))</f>
         <v/>
       </c>
-      <c r="G12" s="27" t="n">
+      <c r="G12" s="21" t="n">
         <v>63.15</v>
       </c>
-      <c r="H12" s="27">
+      <c r="H12" s="21">
         <f>COS(F12)*G12</f>
         <v/>
       </c>
-      <c r="I12" s="27">
+      <c r="I12" s="21">
         <f>SIN(F12)*G12</f>
         <v/>
       </c>
-      <c r="J12" s="27">
+      <c r="J12" s="21">
         <f>($H$17/$G$17)*G12</f>
         <v/>
       </c>
-      <c r="K12" s="27">
+      <c r="K12" s="21">
         <f>($I$17/$G$17)*G12</f>
         <v/>
       </c>
-      <c r="L12" s="27">
+      <c r="L12" s="21">
         <f>H12-J12</f>
         <v/>
       </c>
-      <c r="M12" s="27">
+      <c r="M12" s="21">
         <f>I12-K12</f>
         <v/>
       </c>
-      <c r="N12" s="27">
+      <c r="N12" s="21">
         <f>N10+L12</f>
         <v/>
       </c>
-      <c r="O12" s="27">
+      <c r="O12" s="21">
         <f>O10+M12</f>
         <v/>
       </c>
-      <c r="P12" s="27" t="n"/>
-      <c r="Q12" s="27" t="n"/>
-      <c r="R12" s="27" t="n"/>
-      <c r="S12" s="27" t="n"/>
+      <c r="P12" s="21" t="n"/>
+      <c r="Q12" s="21" t="n"/>
+      <c r="R12" s="21" t="n"/>
+      <c r="S12" s="21" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="27" t="n">
+      <c r="A13" s="21" t="n">
         <v>6</v>
       </c>
-      <c r="B13" s="27" t="n"/>
-      <c r="C13" s="27" t="n"/>
-      <c r="D13" s="27" t="n"/>
-      <c r="E13" s="27" t="n"/>
-      <c r="F13" s="27" t="n"/>
-      <c r="G13" s="27" t="n"/>
-      <c r="H13" s="27" t="n"/>
-      <c r="I13" s="27" t="n"/>
-      <c r="J13" s="27" t="n"/>
-      <c r="K13" s="27" t="n"/>
-      <c r="L13" s="27" t="n"/>
-      <c r="M13" s="27" t="n"/>
-      <c r="N13" s="27" t="n"/>
-      <c r="O13" s="27" t="n"/>
-      <c r="P13" s="27" t="n"/>
-      <c r="Q13" s="27" t="n"/>
-      <c r="R13" s="27" t="n"/>
-      <c r="S13" s="27" t="n"/>
+      <c r="B13" s="21" t="n"/>
+      <c r="C13" s="21" t="n"/>
+      <c r="D13" s="21" t="n"/>
+      <c r="E13" s="21" t="n"/>
+      <c r="F13" s="21" t="n"/>
+      <c r="G13" s="21" t="n"/>
+      <c r="H13" s="21" t="n"/>
+      <c r="I13" s="21" t="n"/>
+      <c r="J13" s="21" t="n"/>
+      <c r="K13" s="21" t="n"/>
+      <c r="L13" s="21" t="n"/>
+      <c r="M13" s="21" t="n"/>
+      <c r="N13" s="21" t="n"/>
+      <c r="O13" s="21" t="n"/>
+      <c r="P13" s="21" t="n"/>
+      <c r="Q13" s="21" t="n"/>
+      <c r="R13" s="21" t="n"/>
+      <c r="S13" s="21" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="27" t="n"/>
-      <c r="B14" s="27" t="n">
+      <c r="A14" s="21" t="n"/>
+      <c r="B14" s="21" t="n">
         <v>7</v>
       </c>
-      <c r="C14" s="27" t="n">
+      <c r="C14" s="21" t="n">
         <v>254</v>
       </c>
-      <c r="D14" s="27" t="n">
+      <c r="D14" s="21" t="n">
         <v>6</v>
       </c>
-      <c r="E14" s="27" t="n">
+      <c r="E14" s="21" t="n">
         <v>29</v>
       </c>
-      <c r="F14" s="27">
+      <c r="F14" s="21">
         <f>RADIANS(C14+(D14/60)+(E14/3600))</f>
         <v/>
       </c>
-      <c r="G14" s="27" t="n">
+      <c r="G14" s="21" t="n">
         <v>86.34999999999999</v>
       </c>
-      <c r="H14" s="27">
+      <c r="H14" s="21">
         <f>COS(F14)*G14</f>
         <v/>
       </c>
-      <c r="I14" s="27">
+      <c r="I14" s="21">
         <f>SIN(F14)*G14</f>
         <v/>
       </c>
-      <c r="J14" s="27">
+      <c r="J14" s="21">
         <f>($H$17/$G$17)*G14</f>
         <v/>
       </c>
-      <c r="K14" s="27">
+      <c r="K14" s="21">
         <f>($I$17/$G$17)*G14</f>
         <v/>
       </c>
-      <c r="L14" s="27">
+      <c r="L14" s="21">
         <f>H14-J14</f>
         <v/>
       </c>
-      <c r="M14" s="27">
+      <c r="M14" s="21">
         <f>I14-K14</f>
         <v/>
       </c>
-      <c r="N14" s="27">
+      <c r="N14" s="21">
         <f>N12+L14</f>
         <v/>
       </c>
-      <c r="O14" s="27">
+      <c r="O14" s="21">
         <f>O12+M14</f>
         <v/>
       </c>
-      <c r="P14" s="27" t="n"/>
-      <c r="Q14" s="27" t="n"/>
-      <c r="R14" s="27" t="n"/>
-      <c r="S14" s="27" t="n"/>
+      <c r="P14" s="21" t="n"/>
+      <c r="Q14" s="21" t="n"/>
+      <c r="R14" s="21" t="n"/>
+      <c r="S14" s="21" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="27" t="n">
+      <c r="A15" s="21" t="n">
         <v>7</v>
       </c>
-      <c r="B15" s="27" t="n"/>
-      <c r="C15" s="27" t="n"/>
-      <c r="D15" s="27" t="n"/>
-      <c r="E15" s="27" t="n"/>
-      <c r="F15" s="27" t="n"/>
-      <c r="G15" s="27" t="n"/>
-      <c r="H15" s="27" t="n"/>
-      <c r="I15" s="27" t="n"/>
-      <c r="J15" s="27" t="n"/>
-      <c r="K15" s="27" t="n"/>
-      <c r="L15" s="27" t="n"/>
-      <c r="M15" s="27" t="n"/>
-      <c r="N15" s="27" t="n"/>
-      <c r="O15" s="27" t="n"/>
-      <c r="P15" s="27" t="n"/>
-      <c r="Q15" s="27" t="n"/>
-      <c r="R15" s="27" t="n"/>
-      <c r="S15" s="27" t="n"/>
+      <c r="B15" s="21" t="n"/>
+      <c r="C15" s="21" t="n"/>
+      <c r="D15" s="21" t="n"/>
+      <c r="E15" s="21" t="n"/>
+      <c r="F15" s="21" t="n"/>
+      <c r="G15" s="21" t="n"/>
+      <c r="H15" s="21" t="n"/>
+      <c r="I15" s="21" t="n"/>
+      <c r="J15" s="21" t="n"/>
+      <c r="K15" s="21" t="n"/>
+      <c r="L15" s="21" t="n"/>
+      <c r="M15" s="21" t="n"/>
+      <c r="N15" s="21" t="n"/>
+      <c r="O15" s="21" t="n"/>
+      <c r="P15" s="21" t="n"/>
+      <c r="Q15" s="21" t="n"/>
+      <c r="R15" s="21" t="n"/>
+      <c r="S15" s="21" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="27" t="n"/>
-      <c r="B16" s="27" t="n">
+      <c r="A16" s="21" t="n"/>
+      <c r="B16" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="C16" s="27" t="n">
+      <c r="C16" s="21" t="n">
         <v>332</v>
       </c>
-      <c r="D16" s="27" t="n">
+      <c r="D16" s="21" t="n">
         <v>25</v>
       </c>
-      <c r="E16" s="27" t="n">
+      <c r="E16" s="21" t="n">
         <v>49</v>
       </c>
-      <c r="F16" s="27">
+      <c r="F16" s="21">
         <f>RADIANS(C16+(D16/60)+(E16/3600))</f>
         <v/>
       </c>
-      <c r="G16" s="27" t="n">
+      <c r="G16" s="21" t="n">
         <v>59.85</v>
       </c>
-      <c r="H16" s="27">
+      <c r="H16" s="21">
         <f>COS(F16)*G16</f>
         <v/>
       </c>
-      <c r="I16" s="27">
+      <c r="I16" s="21">
         <f>SIN(F16)*G16</f>
         <v/>
       </c>
-      <c r="J16" s="27">
+      <c r="J16" s="21">
         <f>($H$17/$G$17)*G16</f>
         <v/>
       </c>
-      <c r="K16" s="27">
+      <c r="K16" s="21">
         <f>($I$17/$G$17)*G16</f>
         <v/>
       </c>
-      <c r="L16" s="27">
+      <c r="L16" s="21">
         <f>H16-J16</f>
         <v/>
       </c>
-      <c r="M16" s="27">
+      <c r="M16" s="21">
         <f>I16-K16</f>
         <v/>
       </c>
@@ -3095,10 +3152,10 @@
         <f>O14+M16</f>
         <v/>
       </c>
-      <c r="P16" s="27" t="n"/>
-      <c r="Q16" s="27" t="n"/>
-      <c r="R16" s="27" t="n"/>
-      <c r="S16" s="27" t="n"/>
+      <c r="P16" s="21" t="n"/>
+      <c r="Q16" s="21" t="n"/>
+      <c r="R16" s="21" t="n"/>
+      <c r="S16" s="21" t="n"/>
     </row>
     <row r="17">
       <c r="G17" s="4">
@@ -3124,11 +3181,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="H1:H2"/>
@@ -3137,6 +3189,11 @@
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="M1:M2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" verticalDpi="300"/>
